--- a/BackTest/2020-01-11 BackTest SOC.xlsx
+++ b/BackTest/2020-01-11 BackTest SOC.xlsx
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2029,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
@@ -7944,7 +7944,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
@@ -7979,7 +7979,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
@@ -8049,7 +8049,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
@@ -17216,14 +17216,20 @@
         <v>16.30400000000002</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
       </c>
-      <c r="J481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>15.4</v>
+      </c>
       <c r="K481" t="inlineStr"/>
-      <c r="L481" t="inlineStr"/>
+      <c r="L481" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M481" t="n">
         <v>1</v>
       </c>
@@ -17251,14 +17257,20 @@
         <v>16.28900000000002</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
       </c>
-      <c r="J482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>15.32</v>
+      </c>
       <c r="K482" t="inlineStr"/>
-      <c r="L482" t="inlineStr"/>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M482" t="n">
         <v>1</v>
       </c>
@@ -17286,14 +17298,20 @@
         <v>16.27316666666668</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
       </c>
-      <c r="J483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>15.5</v>
+      </c>
       <c r="K483" t="inlineStr"/>
-      <c r="L483" t="inlineStr"/>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M483" t="n">
         <v>1</v>
       </c>
@@ -17321,14 +17339,20 @@
         <v>16.25483333333335</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
       </c>
-      <c r="J484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>15.3</v>
+      </c>
       <c r="K484" t="inlineStr"/>
-      <c r="L484" t="inlineStr"/>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M484" t="n">
         <v>1</v>
       </c>
@@ -17356,14 +17380,20 @@
         <v>16.24233333333335</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
       </c>
-      <c r="J485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>15.4</v>
+      </c>
       <c r="K485" t="inlineStr"/>
-      <c r="L485" t="inlineStr"/>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M485" t="n">
         <v>1</v>
       </c>
@@ -17391,14 +17421,20 @@
         <v>16.22750000000002</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
       </c>
-      <c r="J486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>15.51</v>
+      </c>
       <c r="K486" t="inlineStr"/>
-      <c r="L486" t="inlineStr"/>
+      <c r="L486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M486" t="n">
         <v>1</v>
       </c>
@@ -17426,14 +17462,20 @@
         <v>16.21116666666668</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
       </c>
-      <c r="J487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>15.6</v>
+      </c>
       <c r="K487" t="inlineStr"/>
-      <c r="L487" t="inlineStr"/>
+      <c r="L487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M487" t="n">
         <v>1</v>
       </c>
@@ -17461,14 +17503,20 @@
         <v>16.19500000000001</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
       </c>
-      <c r="J488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>15.51</v>
+      </c>
       <c r="K488" t="inlineStr"/>
-      <c r="L488" t="inlineStr"/>
+      <c r="L488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M488" t="n">
         <v>1</v>
       </c>
@@ -17503,7 +17551,11 @@
       </c>
       <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr"/>
-      <c r="L489" t="inlineStr"/>
+      <c r="L489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M489" t="n">
         <v>1</v>
       </c>
@@ -17538,7 +17590,11 @@
       </c>
       <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr"/>
-      <c r="L490" t="inlineStr"/>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M490" t="n">
         <v>1</v>
       </c>
@@ -17566,18 +17622,16 @@
         <v>16.15533333333335</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
       </c>
-      <c r="J491" t="n">
-        <v>15.54</v>
-      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr"/>
       <c r="L491" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M491" t="n">
@@ -17607,14 +17661,12 @@
         <v>16.14800000000002</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
       </c>
-      <c r="J492" t="n">
-        <v>15.9</v>
-      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr"/>
       <c r="L492" t="inlineStr">
         <is>
@@ -17960,14 +18012,12 @@
         <v>16.00433333333335</v>
       </c>
       <c r="H501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
       </c>
-      <c r="J501" t="n">
-        <v>15.7</v>
-      </c>
+      <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr"/>
       <c r="L501" t="inlineStr">
         <is>
@@ -18001,14 +18051,12 @@
         <v>15.99016666666669</v>
       </c>
       <c r="H502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
       </c>
-      <c r="J502" t="n">
-        <v>15.69</v>
-      </c>
+      <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr"/>
       <c r="L502" t="inlineStr">
         <is>
@@ -18198,14 +18246,12 @@
         <v>15.92000000000002</v>
       </c>
       <c r="H507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
       </c>
-      <c r="J507" t="n">
-        <v>15.69</v>
-      </c>
+      <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr"/>
       <c r="L507" t="inlineStr">
         <is>
@@ -18278,14 +18324,12 @@
         <v>15.88483333333336</v>
       </c>
       <c r="H509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
       </c>
-      <c r="J509" t="n">
-        <v>15.41</v>
-      </c>
+      <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr"/>
       <c r="L509" t="inlineStr">
         <is>
@@ -18319,14 +18363,12 @@
         <v>15.86616666666669</v>
       </c>
       <c r="H510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
       </c>
-      <c r="J510" t="n">
-        <v>15.45</v>
-      </c>
+      <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr"/>
       <c r="L510" t="inlineStr">
         <is>
@@ -18360,14 +18402,12 @@
         <v>15.84466666666669</v>
       </c>
       <c r="H511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
       </c>
-      <c r="J511" t="n">
-        <v>15.41</v>
-      </c>
+      <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr"/>
       <c r="L511" t="inlineStr">
         <is>
@@ -18401,14 +18441,12 @@
         <v>15.82650000000002</v>
       </c>
       <c r="H512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
       </c>
-      <c r="J512" t="n">
-        <v>15.41</v>
-      </c>
+      <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr"/>
       <c r="L512" t="inlineStr">
         <is>
@@ -18442,14 +18480,12 @@
         <v>15.80833333333336</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
       </c>
-      <c r="J513" t="n">
-        <v>15.4</v>
-      </c>
+      <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr"/>
       <c r="L513" t="inlineStr">
         <is>
@@ -18483,14 +18519,12 @@
         <v>15.78850000000002</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
       </c>
-      <c r="J514" t="n">
-        <v>15.38</v>
-      </c>
+      <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr"/>
       <c r="L514" t="inlineStr">
         <is>
@@ -18524,14 +18558,12 @@
         <v>15.76766666666669</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I515" t="n">
         <v>0</v>
       </c>
-      <c r="J515" t="n">
-        <v>15.41</v>
-      </c>
+      <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr"/>
       <c r="L515" t="inlineStr">
         <is>
@@ -18565,14 +18597,12 @@
         <v>15.75183333333336</v>
       </c>
       <c r="H516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I516" t="n">
         <v>0</v>
       </c>
-      <c r="J516" t="n">
-        <v>15.35</v>
-      </c>
+      <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr"/>
       <c r="L516" t="inlineStr">
         <is>
@@ -18606,14 +18636,12 @@
         <v>15.73366666666669</v>
       </c>
       <c r="H517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
       </c>
-      <c r="J517" t="n">
-        <v>15.41</v>
-      </c>
+      <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr"/>
       <c r="L517" t="inlineStr">
         <is>
@@ -18647,14 +18675,12 @@
         <v>15.71666666666669</v>
       </c>
       <c r="H518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
       </c>
-      <c r="J518" t="n">
-        <v>15.57</v>
-      </c>
+      <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr"/>
       <c r="L518" t="inlineStr">
         <is>
@@ -18688,14 +18714,12 @@
         <v>15.70133333333335</v>
       </c>
       <c r="H519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
       </c>
-      <c r="J519" t="n">
-        <v>15.65</v>
-      </c>
+      <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr"/>
       <c r="L519" t="inlineStr">
         <is>
@@ -18729,14 +18753,12 @@
         <v>15.68600000000002</v>
       </c>
       <c r="H520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
       </c>
-      <c r="J520" t="n">
-        <v>15.65</v>
-      </c>
+      <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr"/>
       <c r="L520" t="inlineStr">
         <is>
@@ -18770,14 +18792,12 @@
         <v>15.67183333333335</v>
       </c>
       <c r="H521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I521" t="n">
         <v>0</v>
       </c>
-      <c r="J521" t="n">
-        <v>15.51</v>
-      </c>
+      <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr"/>
       <c r="L521" t="inlineStr">
         <is>
@@ -18811,14 +18831,12 @@
         <v>15.65750000000002</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I522" t="n">
         <v>0</v>
       </c>
-      <c r="J522" t="n">
-        <v>15.5</v>
-      </c>
+      <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr"/>
       <c r="L522" t="inlineStr">
         <is>
@@ -18852,14 +18870,12 @@
         <v>15.64366666666668</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I523" t="n">
         <v>0</v>
       </c>
-      <c r="J523" t="n">
-        <v>15.5</v>
-      </c>
+      <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr"/>
       <c r="L523" t="inlineStr">
         <is>
@@ -18893,14 +18909,12 @@
         <v>15.62400000000002</v>
       </c>
       <c r="H524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I524" t="n">
         <v>0</v>
       </c>
-      <c r="J524" t="n">
-        <v>15.5</v>
-      </c>
+      <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr"/>
       <c r="L524" t="inlineStr">
         <is>
@@ -18934,14 +18948,12 @@
         <v>15.61033333333335</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
       </c>
-      <c r="J525" t="n">
-        <v>15.51</v>
-      </c>
+      <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr"/>
       <c r="L525" t="inlineStr">
         <is>
@@ -18975,14 +18987,12 @@
         <v>15.59316666666668</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I526" t="n">
         <v>0</v>
       </c>
-      <c r="J526" t="n">
-        <v>15.56</v>
-      </c>
+      <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr"/>
       <c r="L526" t="inlineStr">
         <is>
@@ -19016,14 +19026,12 @@
         <v>15.58233333333335</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I527" t="n">
         <v>0</v>
       </c>
-      <c r="J527" t="n">
-        <v>15.55</v>
-      </c>
+      <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr"/>
       <c r="L527" t="inlineStr">
         <is>
@@ -19057,14 +19065,12 @@
         <v>15.57150000000001</v>
       </c>
       <c r="H528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
       </c>
-      <c r="J528" t="n">
-        <v>15.55</v>
-      </c>
+      <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr"/>
       <c r="L528" t="inlineStr">
         <is>
@@ -19098,14 +19104,12 @@
         <v>15.56433333333335</v>
       </c>
       <c r="H529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I529" t="n">
         <v>0</v>
       </c>
-      <c r="J529" t="n">
-        <v>15.55</v>
-      </c>
+      <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr"/>
       <c r="L529" t="inlineStr">
         <is>
@@ -19139,14 +19143,12 @@
         <v>15.55900000000001</v>
       </c>
       <c r="H530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
       </c>
-      <c r="J530" t="n">
-        <v>15.64</v>
-      </c>
+      <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr"/>
       <c r="L530" t="inlineStr">
         <is>
@@ -19180,14 +19182,12 @@
         <v>15.55816666666668</v>
       </c>
       <c r="H531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
       </c>
-      <c r="J531" t="n">
-        <v>15.67</v>
-      </c>
+      <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr"/>
       <c r="L531" t="inlineStr">
         <is>
@@ -19221,14 +19221,12 @@
         <v>15.55733333333334</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
       </c>
-      <c r="J532" t="n">
-        <v>15.67</v>
-      </c>
+      <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr"/>
       <c r="L532" t="inlineStr">
         <is>
@@ -19262,14 +19260,12 @@
         <v>15.55733333333334</v>
       </c>
       <c r="H533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
       </c>
-      <c r="J533" t="n">
-        <v>15.67</v>
-      </c>
+      <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr"/>
       <c r="L533" t="inlineStr">
         <is>
@@ -19303,14 +19299,12 @@
         <v>15.55900000000001</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I534" t="n">
         <v>0</v>
       </c>
-      <c r="J534" t="n">
-        <v>15.64</v>
-      </c>
+      <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr"/>
       <c r="L534" t="inlineStr">
         <is>
@@ -19344,14 +19338,12 @@
         <v>15.56066666666668</v>
       </c>
       <c r="H535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I535" t="n">
         <v>0</v>
       </c>
-      <c r="J535" t="n">
-        <v>15.64</v>
-      </c>
+      <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr"/>
       <c r="L535" t="inlineStr">
         <is>
@@ -19385,14 +19377,12 @@
         <v>15.56283333333335</v>
       </c>
       <c r="H536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I536" t="n">
         <v>0</v>
       </c>
-      <c r="J536" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr"/>
       <c r="L536" t="inlineStr">
         <is>
@@ -19426,14 +19416,12 @@
         <v>15.56366666666668</v>
       </c>
       <c r="H537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
       </c>
-      <c r="J537" t="n">
-        <v>15.55</v>
-      </c>
+      <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr"/>
       <c r="L537" t="inlineStr">
         <is>
@@ -19467,14 +19455,12 @@
         <v>15.56900000000001</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I538" t="n">
         <v>0</v>
       </c>
-      <c r="J538" t="n">
-        <v>15.55</v>
-      </c>
+      <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr"/>
       <c r="L538" t="inlineStr">
         <is>
@@ -19508,14 +19494,12 @@
         <v>15.57083333333335</v>
       </c>
       <c r="H539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I539" t="n">
         <v>0</v>
       </c>
-      <c r="J539" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr"/>
       <c r="L539" t="inlineStr">
         <is>
@@ -19549,14 +19533,12 @@
         <v>15.57416666666668</v>
       </c>
       <c r="H540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I540" t="n">
         <v>0</v>
       </c>
-      <c r="J540" t="n">
-        <v>15.6</v>
-      </c>
+      <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr"/>
       <c r="L540" t="inlineStr">
         <is>
@@ -19590,14 +19572,12 @@
         <v>15.57633333333335</v>
       </c>
       <c r="H541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I541" t="n">
         <v>0</v>
       </c>
-      <c r="J541" t="n">
-        <v>15.57</v>
-      </c>
+      <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr"/>
       <c r="L541" t="inlineStr">
         <is>
@@ -19631,14 +19611,12 @@
         <v>15.57783333333335</v>
       </c>
       <c r="H542" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
       </c>
-      <c r="J542" t="n">
-        <v>15.58</v>
-      </c>
+      <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr"/>
       <c r="L542" t="inlineStr">
         <is>
@@ -19672,14 +19650,12 @@
         <v>15.58266666666668</v>
       </c>
       <c r="H543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I543" t="n">
         <v>0</v>
       </c>
-      <c r="J543" t="n">
-        <v>15.59</v>
-      </c>
+      <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr"/>
       <c r="L543" t="inlineStr">
         <is>
@@ -19713,14 +19689,12 @@
         <v>15.58600000000002</v>
       </c>
       <c r="H544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I544" t="n">
         <v>0</v>
       </c>
-      <c r="J544" t="n">
-        <v>15.6</v>
-      </c>
+      <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr"/>
       <c r="L544" t="inlineStr">
         <is>
@@ -19754,14 +19728,12 @@
         <v>15.58733333333335</v>
       </c>
       <c r="H545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I545" t="n">
         <v>0</v>
       </c>
-      <c r="J545" t="n">
-        <v>15.59</v>
-      </c>
+      <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr"/>
       <c r="L545" t="inlineStr">
         <is>
@@ -19795,14 +19767,12 @@
         <v>15.58716666666668</v>
       </c>
       <c r="H546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I546" t="n">
         <v>0</v>
       </c>
-      <c r="J546" t="n">
-        <v>15.59</v>
-      </c>
+      <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr"/>
       <c r="L546" t="inlineStr">
         <is>
@@ -19836,14 +19806,12 @@
         <v>15.58866666666668</v>
       </c>
       <c r="H547" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I547" t="n">
         <v>0</v>
       </c>
-      <c r="J547" t="n">
-        <v>15.45</v>
-      </c>
+      <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr"/>
       <c r="L547" t="inlineStr">
         <is>
@@ -19877,14 +19845,12 @@
         <v>15.58766666666668</v>
       </c>
       <c r="H548" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I548" t="n">
         <v>0</v>
       </c>
-      <c r="J548" t="n">
-        <v>15.45</v>
-      </c>
+      <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr"/>
       <c r="L548" t="inlineStr">
         <is>
@@ -19918,14 +19884,12 @@
         <v>15.58883333333335</v>
       </c>
       <c r="H549" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
       </c>
-      <c r="J549" t="n">
-        <v>15.58</v>
-      </c>
+      <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr"/>
       <c r="L549" t="inlineStr">
         <is>
@@ -19959,14 +19923,12 @@
         <v>15.58866666666669</v>
       </c>
       <c r="H550" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I550" t="n">
         <v>0</v>
       </c>
-      <c r="J550" t="n">
-        <v>15.58</v>
-      </c>
+      <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr"/>
       <c r="L550" t="inlineStr">
         <is>
@@ -20000,14 +19962,12 @@
         <v>15.57900000000002</v>
       </c>
       <c r="H551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I551" t="n">
         <v>0</v>
       </c>
-      <c r="J551" t="n">
-        <v>15.58</v>
-      </c>
+      <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr"/>
       <c r="L551" t="inlineStr">
         <is>
@@ -20041,14 +20001,12 @@
         <v>15.57050000000002</v>
       </c>
       <c r="H552" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I552" t="n">
         <v>0</v>
       </c>
-      <c r="J552" t="n">
-        <v>15.47</v>
-      </c>
+      <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr"/>
       <c r="L552" t="inlineStr">
         <is>
@@ -20082,14 +20040,12 @@
         <v>15.56683333333336</v>
       </c>
       <c r="H553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I553" t="n">
         <v>0</v>
       </c>
-      <c r="J553" t="n">
-        <v>15.58</v>
-      </c>
+      <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr"/>
       <c r="L553" t="inlineStr">
         <is>
@@ -20123,14 +20079,12 @@
         <v>15.56500000000002</v>
       </c>
       <c r="H554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
       </c>
-      <c r="J554" t="n">
-        <v>15.59</v>
-      </c>
+      <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr"/>
       <c r="L554" t="inlineStr">
         <is>
@@ -20164,14 +20118,12 @@
         <v>15.56500000000002</v>
       </c>
       <c r="H555" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I555" t="n">
         <v>0</v>
       </c>
-      <c r="J555" t="n">
-        <v>15.6</v>
-      </c>
+      <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr"/>
       <c r="L555" t="inlineStr">
         <is>
@@ -20205,14 +20157,12 @@
         <v>15.56666666666669</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
       </c>
-      <c r="J556" t="n">
-        <v>15.7</v>
-      </c>
+      <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr"/>
       <c r="L556" t="inlineStr">
         <is>
@@ -20246,14 +20196,12 @@
         <v>15.56816666666669</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I557" t="n">
         <v>0</v>
       </c>
-      <c r="J557" t="n">
-        <v>15.79</v>
-      </c>
+      <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr"/>
       <c r="L557" t="inlineStr">
         <is>
@@ -20287,14 +20235,12 @@
         <v>15.57450000000002</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I558" t="n">
         <v>0</v>
       </c>
-      <c r="J558" t="n">
-        <v>15.57</v>
-      </c>
+      <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr"/>
       <c r="L558" t="inlineStr">
         <is>
@@ -20328,14 +20274,12 @@
         <v>15.58083333333335</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
       </c>
-      <c r="J559" t="n">
-        <v>15.79</v>
-      </c>
+      <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr"/>
       <c r="L559" t="inlineStr">
         <is>
@@ -20369,14 +20313,12 @@
         <v>15.58233333333335</v>
       </c>
       <c r="H560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
       </c>
-      <c r="J560" t="n">
-        <v>15.79</v>
-      </c>
+      <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr"/>
       <c r="L560" t="inlineStr">
         <is>
@@ -20410,14 +20352,12 @@
         <v>15.58066666666669</v>
       </c>
       <c r="H561" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I561" t="n">
         <v>0</v>
       </c>
-      <c r="J561" t="n">
-        <v>15.6</v>
-      </c>
+      <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr"/>
       <c r="L561" t="inlineStr">
         <is>
@@ -20451,14 +20391,12 @@
         <v>15.57933333333335</v>
       </c>
       <c r="H562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I562" t="n">
         <v>0</v>
       </c>
-      <c r="J562" t="n">
-        <v>15.6</v>
-      </c>
+      <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr"/>
       <c r="L562" t="inlineStr">
         <is>
@@ -20492,14 +20430,12 @@
         <v>15.57800000000002</v>
       </c>
       <c r="H563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I563" t="n">
         <v>0</v>
       </c>
-      <c r="J563" t="n">
-        <v>15.62</v>
-      </c>
+      <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr"/>
       <c r="L563" t="inlineStr">
         <is>
@@ -20533,14 +20469,12 @@
         <v>15.57950000000002</v>
       </c>
       <c r="H564" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I564" t="n">
         <v>0</v>
       </c>
-      <c r="J564" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr"/>
       <c r="L564" t="inlineStr">
         <is>
@@ -20574,14 +20508,12 @@
         <v>15.58100000000002</v>
       </c>
       <c r="H565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I565" t="n">
         <v>0</v>
       </c>
-      <c r="J565" t="n">
-        <v>15.62</v>
-      </c>
+      <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr"/>
       <c r="L565" t="inlineStr">
         <is>
@@ -20615,14 +20547,12 @@
         <v>15.58250000000002</v>
       </c>
       <c r="H566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I566" t="n">
         <v>0</v>
       </c>
-      <c r="J566" t="n">
-        <v>15.79</v>
-      </c>
+      <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr"/>
       <c r="L566" t="inlineStr">
         <is>
@@ -20656,14 +20586,12 @@
         <v>15.58700000000002</v>
       </c>
       <c r="H567" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I567" t="n">
         <v>0</v>
       </c>
-      <c r="J567" t="n">
-        <v>15.79</v>
-      </c>
+      <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr"/>
       <c r="L567" t="inlineStr">
         <is>
@@ -20697,14 +20625,12 @@
         <v>15.59333333333335</v>
       </c>
       <c r="H568" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I568" t="n">
         <v>0</v>
       </c>
-      <c r="J568" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr"/>
       <c r="L568" t="inlineStr">
         <is>
@@ -20738,14 +20664,12 @@
         <v>15.59833333333335</v>
       </c>
       <c r="H569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I569" t="n">
         <v>0</v>
       </c>
-      <c r="J569" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr"/>
       <c r="L569" t="inlineStr">
         <is>
@@ -20779,14 +20703,12 @@
         <v>15.60283333333335</v>
       </c>
       <c r="H570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I570" t="n">
         <v>0</v>
       </c>
-      <c r="J570" t="n">
-        <v>15.79</v>
-      </c>
+      <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr"/>
       <c r="L570" t="inlineStr">
         <is>
@@ -20820,14 +20742,12 @@
         <v>15.60766666666668</v>
       </c>
       <c r="H571" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I571" t="n">
         <v>0</v>
       </c>
-      <c r="J571" t="n">
-        <v>15.7</v>
-      </c>
+      <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr"/>
       <c r="L571" t="inlineStr">
         <is>
@@ -20861,14 +20781,12 @@
         <v>15.61250000000002</v>
       </c>
       <c r="H572" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I572" t="n">
         <v>0</v>
       </c>
-      <c r="J572" t="n">
-        <v>15.7</v>
-      </c>
+      <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr"/>
       <c r="L572" t="inlineStr">
         <is>
@@ -20902,14 +20820,12 @@
         <v>15.61750000000002</v>
       </c>
       <c r="H573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I573" t="n">
         <v>0</v>
       </c>
-      <c r="J573" t="n">
-        <v>15.71</v>
-      </c>
+      <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr"/>
       <c r="L573" t="inlineStr">
         <is>
@@ -20943,14 +20859,12 @@
         <v>15.62250000000002</v>
       </c>
       <c r="H574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I574" t="n">
         <v>0</v>
       </c>
-      <c r="J574" t="n">
-        <v>15.71</v>
-      </c>
+      <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr"/>
       <c r="L574" t="inlineStr">
         <is>
@@ -20984,14 +20898,12 @@
         <v>15.62850000000002</v>
       </c>
       <c r="H575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I575" t="n">
         <v>0</v>
       </c>
-      <c r="J575" t="n">
-        <v>15.71</v>
-      </c>
+      <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr"/>
       <c r="L575" t="inlineStr">
         <is>
@@ -21025,14 +20937,12 @@
         <v>15.63366666666669</v>
       </c>
       <c r="H576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I576" t="n">
         <v>0</v>
       </c>
-      <c r="J576" t="n">
-        <v>15.72</v>
-      </c>
+      <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr"/>
       <c r="L576" t="inlineStr">
         <is>
@@ -21066,14 +20976,12 @@
         <v>15.64000000000002</v>
       </c>
       <c r="H577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I577" t="n">
         <v>0</v>
       </c>
-      <c r="J577" t="n">
-        <v>15.79</v>
-      </c>
+      <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr"/>
       <c r="L577" t="inlineStr">
         <is>
@@ -21107,14 +21015,12 @@
         <v>15.64266666666669</v>
       </c>
       <c r="H578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I578" t="n">
         <v>0</v>
       </c>
-      <c r="J578" t="n">
-        <v>15.73</v>
-      </c>
+      <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr"/>
       <c r="L578" t="inlineStr">
         <is>
@@ -21148,14 +21054,12 @@
         <v>15.64350000000002</v>
       </c>
       <c r="H579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I579" t="n">
         <v>0</v>
       </c>
-      <c r="J579" t="n">
-        <v>15.73</v>
-      </c>
+      <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr"/>
       <c r="L579" t="inlineStr">
         <is>
@@ -21189,14 +21093,12 @@
         <v>15.64583333333336</v>
       </c>
       <c r="H580" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I580" t="n">
         <v>0</v>
       </c>
-      <c r="J580" t="n">
-        <v>15.79</v>
-      </c>
+      <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr"/>
       <c r="L580" t="inlineStr">
         <is>
@@ -21230,14 +21132,12 @@
         <v>15.65033333333336</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I581" t="n">
         <v>0</v>
       </c>
-      <c r="J581" t="n">
-        <v>15.71</v>
-      </c>
+      <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr"/>
       <c r="L581" t="inlineStr">
         <is>
@@ -21271,14 +21171,12 @@
         <v>15.65366666666669</v>
       </c>
       <c r="H582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I582" t="n">
         <v>0</v>
       </c>
-      <c r="J582" t="n">
-        <v>15.7</v>
-      </c>
+      <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr"/>
       <c r="L582" t="inlineStr">
         <is>
@@ -21312,14 +21210,12 @@
         <v>15.65716666666669</v>
       </c>
       <c r="H583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I583" t="n">
         <v>0</v>
       </c>
-      <c r="J583" t="n">
-        <v>15.7</v>
-      </c>
+      <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr"/>
       <c r="L583" t="inlineStr">
         <is>
@@ -21353,14 +21249,12 @@
         <v>15.66166666666669</v>
       </c>
       <c r="H584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I584" t="n">
         <v>0</v>
       </c>
-      <c r="J584" t="n">
-        <v>15.77</v>
-      </c>
+      <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr"/>
       <c r="L584" t="inlineStr">
         <is>
@@ -21394,14 +21288,12 @@
         <v>15.66483333333336</v>
       </c>
       <c r="H585" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I585" t="n">
         <v>0</v>
       </c>
-      <c r="J585" t="n">
-        <v>15.7</v>
-      </c>
+      <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr"/>
       <c r="L585" t="inlineStr">
         <is>
@@ -21435,14 +21327,12 @@
         <v>15.66883333333336</v>
       </c>
       <c r="H586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I586" t="n">
         <v>0</v>
       </c>
-      <c r="J586" t="n">
-        <v>15.79</v>
-      </c>
+      <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr"/>
       <c r="L586" t="inlineStr">
         <is>
@@ -21476,14 +21366,12 @@
         <v>15.67116666666669</v>
       </c>
       <c r="H587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I587" t="n">
         <v>0</v>
       </c>
-      <c r="J587" t="n">
-        <v>15.79</v>
-      </c>
+      <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr"/>
       <c r="L587" t="inlineStr">
         <is>

--- a/BackTest/2020-01-11 BackTest SOC.xlsx
+++ b/BackTest/2020-01-11 BackTest SOC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-9108323.244461229</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-9116971.060261229</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-9430416.496461229</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-9419610.69776123</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-9402781.91066123</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-9402781.91066123</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-9333995.263161229</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-9333995.263161229</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-9333995.263161229</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-9394790.585961228</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-9490405.069061229</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-9490405.069061229</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-9550704.318822099</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-9887692.956122098</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-10346567.6977221</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-10248309.3955221</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-10274206.1047221</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-10352246.5185221</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-10277592.5975221</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-9932686.427679798</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-10039834.0344798</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-10200032.9160798</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-10568680.03480355</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-10560090.9454273</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-10277395.7162273</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-10209267.4462273</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-9826144.371427296</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-9827693.243927296</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-9908011.092327297</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-10096745.9439273</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-10096712.9779273</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-10096712.9779273</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-10193658.9621273</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-10177781.3545273</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-10177781.3545273</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-10177781.3545273</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>31263642.37009962</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>31263642.37009962</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-190429481.8131004</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-190429481.8131004</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-190429481.8131004</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-285654552.2696004</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-286017517.2393004</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-286175706.6927242</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-286322698.7892242</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-286322698.7892242</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-286340434.8494242</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-286115015.5637259</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-286197849.9885259</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-286130286.1166259</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-285889216.7240849</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-285399526.9816369</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-285472594.8378369</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-285472594.8378369</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-285340984.0744369</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-285628376.1235468</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-285628496.1235468</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-285628496.1235468</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-285673402.2195469</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-285673402.2195469</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-285677300.6608468</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-285570641.5247715</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-285271430.1364743</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-285280788.2742743</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-285314986.3359743</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9856,11 +9856,17 @@
         <v>-287445153.7966742</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>15.82</v>
+      </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9889,11 +9895,17 @@
         <v>-287357315.4988742</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>15.77</v>
+      </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9922,11 +9934,17 @@
         <v>-287344611.4797742</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>16.6</v>
+      </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9955,11 +9973,17 @@
         <v>-287386087.9369742</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>16.61</v>
+      </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -9988,11 +10012,17 @@
         <v>-287339347.4630954</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>16.04</v>
+      </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10021,11 +10051,17 @@
         <v>-287339379.4630954</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>16.5</v>
+      </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10054,11 +10090,17 @@
         <v>-287342089.1831954</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>16.3</v>
+      </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10087,11 +10129,17 @@
         <v>-287342058.1831954</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>16.13</v>
+      </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10120,11 +10168,17 @@
         <v>-287289829.4415954</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>16.31</v>
+      </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10153,11 +10207,17 @@
         <v>-287158909.9963499</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>16.32</v>
+      </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10190,7 +10250,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10223,7 +10287,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10256,7 +10324,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10289,7 +10361,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10322,7 +10398,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10355,7 +10435,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10388,7 +10472,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10421,7 +10509,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10454,7 +10546,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10487,7 +10583,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10520,7 +10620,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10553,7 +10657,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10586,7 +10694,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10619,7 +10731,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10652,7 +10768,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10685,7 +10805,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10718,7 +10842,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10751,7 +10879,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10784,7 +10916,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10817,7 +10953,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10850,7 +10990,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10883,7 +11027,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10916,7 +11064,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10949,7 +11101,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -10982,7 +11138,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11015,7 +11175,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11048,7 +11212,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11081,7 +11249,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11114,7 +11286,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11147,7 +11323,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11180,7 +11360,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11213,7 +11397,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11246,7 +11434,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11279,7 +11471,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11312,7 +11508,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11345,7 +11545,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11378,7 +11582,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11411,7 +11619,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11444,7 +11656,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11477,7 +11693,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11510,7 +11730,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11543,7 +11767,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11576,7 +11804,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11609,7 +11841,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11642,7 +11878,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11675,7 +11915,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11708,7 +11952,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11741,7 +11989,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11774,7 +12026,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11807,7 +12063,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11840,7 +12100,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11873,7 +12137,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11906,7 +12174,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11939,7 +12211,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -11972,7 +12248,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12005,7 +12285,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12038,7 +12322,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12071,7 +12359,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12104,7 +12396,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12137,7 +12433,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12170,7 +12470,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12203,7 +12507,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12236,7 +12544,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12269,7 +12581,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12302,7 +12618,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12335,7 +12655,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12368,7 +12692,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12401,7 +12729,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12434,7 +12766,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12467,7 +12803,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12500,7 +12840,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12533,7 +12877,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12566,7 +12914,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12599,7 +12951,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12632,7 +12988,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12665,7 +13025,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12694,11 +13058,15 @@
         <v>-315980733.8628845</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12727,11 +13095,15 @@
         <v>-315981933.1117845</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12760,11 +13132,15 @@
         <v>-315981933.1117845</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12797,7 +13173,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12830,7 +13210,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12863,7 +13247,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12896,7 +13284,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12929,7 +13321,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -12962,7 +13358,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -12995,7 +13395,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13028,7 +13432,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13061,7 +13469,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13094,7 +13506,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13127,7 +13543,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13160,7 +13580,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13193,7 +13617,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13226,7 +13654,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13259,7 +13691,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13292,7 +13728,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13325,7 +13765,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13358,7 +13802,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13391,7 +13839,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13424,7 +13876,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13457,7 +13913,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13490,7 +13950,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13523,7 +13987,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13556,7 +14024,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13589,7 +14061,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13618,11 +14094,17 @@
         <v>-317006929.1199763</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>16.03</v>
+      </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13655,7 +14137,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13688,7 +14174,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13721,7 +14211,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13754,7 +14248,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13787,7 +14285,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13820,7 +14322,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13853,7 +14359,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13886,7 +14396,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -13919,7 +14433,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -13952,7 +14470,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -13985,7 +14507,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14018,7 +14544,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14051,7 +14581,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14084,7 +14618,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14117,7 +14655,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14150,7 +14692,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14183,7 +14729,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14216,7 +14766,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14249,7 +14803,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14282,7 +14840,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14315,7 +14877,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14348,7 +14914,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14381,7 +14951,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14414,7 +14988,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14447,7 +15025,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14480,7 +15062,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14513,7 +15099,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14546,7 +15136,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14579,7 +15173,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14612,7 +15210,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14645,7 +15247,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14678,7 +15284,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14711,7 +15321,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14744,7 +15358,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14777,7 +15395,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14810,7 +15432,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14843,7 +15469,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14876,7 +15506,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14909,7 +15543,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -14942,7 +15580,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -14975,7 +15617,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15008,7 +15654,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15041,7 +15691,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15074,7 +15728,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15107,7 +15765,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15140,7 +15802,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15173,7 +15839,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15206,7 +15876,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15239,7 +15913,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15272,7 +15950,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15305,7 +15987,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15338,7 +16024,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15371,7 +16061,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15404,7 +16098,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15437,7 +16135,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15470,7 +16172,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15503,7 +16209,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15536,7 +16246,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15569,7 +16283,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15602,7 +16320,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15635,7 +16357,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15668,7 +16394,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15701,7 +16431,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15734,7 +16468,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15767,7 +16505,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15800,7 +16542,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15833,7 +16579,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -15866,7 +16616,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -15899,7 +16653,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -15932,7 +16690,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -15965,7 +16727,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -15998,7 +16764,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16031,7 +16801,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16064,7 +16838,11 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16097,7 +16875,11 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16130,7 +16912,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16163,7 +16949,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16196,7 +16986,11 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16229,7 +17023,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16262,7 +17060,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16295,7 +17097,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16328,7 +17134,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16361,7 +17171,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16394,7 +17208,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16427,7 +17245,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16460,7 +17282,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16493,7 +17319,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16526,7 +17356,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16559,7 +17393,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16592,7 +17430,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16625,7 +17467,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16658,7 +17504,11 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16691,7 +17541,11 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16724,7 +17578,11 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -16757,7 +17615,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -16790,7 +17652,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -16823,7 +17689,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -16856,7 +17726,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -16889,7 +17763,11 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -16922,7 +17800,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -16955,7 +17837,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -16988,7 +17874,11 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17021,7 +17911,11 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17054,7 +17948,11 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17087,7 +17985,11 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17120,7 +18022,11 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17153,7 +18059,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17186,7 +18096,11 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17219,7 +18133,11 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17252,7 +18170,11 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17285,7 +18207,11 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17318,7 +18244,11 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17351,7 +18281,11 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17384,7 +18318,11 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17417,7 +18355,11 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17450,7 +18392,11 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17483,7 +18429,11 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17516,7 +18466,11 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17549,7 +18503,11 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17582,7 +18540,11 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17615,7 +18577,11 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17648,7 +18614,11 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17681,7 +18651,11 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17714,7 +18688,11 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17747,7 +18725,11 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17780,7 +18762,11 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -17813,7 +18799,11 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -17846,7 +18836,11 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -17879,7 +18873,11 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -17912,7 +18910,11 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -17941,11 +18943,17 @@
         <v>-321479498.6848409</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
-      </c>
-      <c r="I532" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I532" t="n">
+        <v>15.72</v>
+      </c>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -17974,11 +18982,17 @@
         <v>-321691106.0882409</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
-      </c>
-      <c r="I533" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I533" t="n">
+        <v>15.67</v>
+      </c>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18007,11 +19021,17 @@
         <v>-321755926.7308409</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
-      </c>
-      <c r="I534" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I534" t="n">
+        <v>15.54</v>
+      </c>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18040,11 +19060,17 @@
         <v>-322422739.0820409</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
-      </c>
-      <c r="I535" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I535" t="n">
+        <v>15.53</v>
+      </c>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18073,11 +19099,17 @@
         <v>-322422739.0820409</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
-      </c>
-      <c r="I536" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I536" t="n">
+        <v>15.5</v>
+      </c>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18106,11 +19138,17 @@
         <v>-322422739.0820409</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
-      </c>
-      <c r="I537" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I537" t="n">
+        <v>15.5</v>
+      </c>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18139,11 +19177,17 @@
         <v>-322862555.7252409</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
-      </c>
-      <c r="I538" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I538" t="n">
+        <v>15.5</v>
+      </c>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18172,11 +19216,17 @@
         <v>-323030174.8021409</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
-      </c>
-      <c r="I539" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I539" t="n">
+        <v>15.49</v>
+      </c>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18205,11 +19255,17 @@
         <v>-323286456.9532409</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
-      </c>
-      <c r="I540" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I540" t="n">
+        <v>15.4</v>
+      </c>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18238,11 +19294,17 @@
         <v>-323034602.1502751</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
-      </c>
-      <c r="I541" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I541" t="n">
+        <v>15.32</v>
+      </c>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18271,11 +19333,17 @@
         <v>-323078872.4183751</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
-      </c>
-      <c r="I542" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I542" t="n">
+        <v>15.5</v>
+      </c>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18304,11 +19372,17 @@
         <v>-322764931.5183751</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
-      </c>
-      <c r="I543" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I543" t="n">
+        <v>15.3</v>
+      </c>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18337,11 +19411,17 @@
         <v>-322681191.1631409</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
-      </c>
-      <c r="I544" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I544" t="n">
+        <v>15.4</v>
+      </c>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18370,11 +19450,17 @@
         <v>-322680030.1010409</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
-      </c>
-      <c r="I545" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I545" t="n">
+        <v>15.51</v>
+      </c>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18403,11 +19489,17 @@
         <v>-322692849.4669409</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I546" t="n">
+        <v>15.6</v>
+      </c>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18436,11 +19528,17 @@
         <v>-322692849.4669409</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I547" t="n">
+        <v>15.51</v>
+      </c>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18469,11 +19567,17 @@
         <v>-322692849.4669409</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I548" t="n">
+        <v>15.51</v>
+      </c>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18502,11 +19606,17 @@
         <v>-322559112.9812409</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I549" t="n">
+        <v>15.51</v>
+      </c>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18535,11 +19645,17 @@
         <v>-322457897.4528396</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I550" t="n">
+        <v>15.59</v>
+      </c>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18568,11 +19684,17 @@
         <v>-322520967.6512396</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>16.16</v>
+      </c>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18601,11 +19723,17 @@
         <v>-322606651.2861395</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
-      </c>
-      <c r="I552" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I552" t="n">
+        <v>15.98</v>
+      </c>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18634,11 +19762,17 @@
         <v>-322711850.7212396</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I553" t="n">
+        <v>15.8</v>
+      </c>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18667,11 +19801,17 @@
         <v>-322735895.8340396</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I554" t="n">
+        <v>15.7</v>
+      </c>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -18700,11 +19840,17 @@
         <v>-322735895.8340396</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
-      </c>
-      <c r="I555" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I555" t="n">
+        <v>15.6</v>
+      </c>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -18733,11 +19879,17 @@
         <v>-322659620.4543396</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
-      </c>
-      <c r="I556" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I556" t="n">
+        <v>15.6</v>
+      </c>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -18766,11 +19918,17 @@
         <v>-322734402.4979396</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
-      </c>
-      <c r="I557" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I557" t="n">
+        <v>15.7</v>
+      </c>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -18799,11 +19957,17 @@
         <v>-322734402.4979396</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
-      </c>
-      <c r="I558" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I558" t="n">
+        <v>15.41</v>
+      </c>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -18832,11 +19996,17 @@
         <v>-322734370.4979396</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
-      </c>
-      <c r="I559" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I559" t="n">
+        <v>15.41</v>
+      </c>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -18865,11 +20035,17 @@
         <v>-322734370.4979396</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
-      </c>
-      <c r="I560" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I560" t="n">
+        <v>15.7</v>
+      </c>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -18898,11 +20074,17 @@
         <v>-322741541.5870396</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
-      </c>
-      <c r="I561" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I561" t="n">
+        <v>15.7</v>
+      </c>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -18931,11 +20113,17 @@
         <v>-322737621.7276396</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
-      </c>
-      <c r="I562" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I562" t="n">
+        <v>15.69</v>
+      </c>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -18964,11 +20152,17 @@
         <v>-322737621.7276396</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
-      </c>
-      <c r="I563" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I563" t="n">
+        <v>15.7</v>
+      </c>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -18997,11 +20191,17 @@
         <v>-322746158.5768396</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
-      </c>
-      <c r="I564" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I564" t="n">
+        <v>15.7</v>
+      </c>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19030,11 +20230,17 @@
         <v>-322649426.8269785</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
-      </c>
-      <c r="I565" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I565" t="n">
+        <v>15.53</v>
+      </c>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19063,11 +20269,17 @@
         <v>-322694909.4459785</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
-      </c>
-      <c r="I566" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I566" t="n">
+        <v>15.7</v>
+      </c>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19100,7 +20312,11 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19129,11 +20345,17 @@
         <v>-322746886.8409785</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
-      </c>
-      <c r="I568" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I568" t="n">
+        <v>15.41</v>
+      </c>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19162,11 +20384,17 @@
         <v>-322785468.3609785</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
-      </c>
-      <c r="I569" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I569" t="n">
+        <v>15.5</v>
+      </c>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19195,11 +20423,17 @@
         <v>-322825706.8871785</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
-      </c>
-      <c r="I570" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I570" t="n">
+        <v>15.42</v>
+      </c>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19228,11 +20462,17 @@
         <v>-322825706.8871785</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
-      </c>
-      <c r="I571" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I571" t="n">
+        <v>15.41</v>
+      </c>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19261,11 +20501,17 @@
         <v>-322825706.8871785</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I572" t="n">
+        <v>15.41</v>
+      </c>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19294,11 +20540,17 @@
         <v>-322825706.8871785</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
-      </c>
-      <c r="I573" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I573" t="n">
+        <v>15.41</v>
+      </c>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19327,11 +20579,17 @@
         <v>-322941454.5403785</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
-      </c>
-      <c r="I574" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I574" t="n">
+        <v>15.41</v>
+      </c>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19360,7 +20618,7 @@
         <v>-322845115.5109785</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I575" t="n">
         <v>15.35</v>
@@ -19368,7 +20626,7 @@
       <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L575" t="n">
@@ -19399,7 +20657,7 @@
         <v>-322845115.5109785</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I576" t="n">
         <v>15.41</v>
@@ -19438,7 +20696,7 @@
         <v>-322559786.0152785</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I577" t="n">
         <v>15.41</v>
@@ -19477,7 +20735,7 @@
         <v>-322554622.0152785</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I578" t="n">
         <v>15.57</v>
@@ -19516,9 +20774,11 @@
         <v>-322554622.0152785</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
-      </c>
-      <c r="I579" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I579" t="n">
+        <v>15.65</v>
+      </c>
       <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr">
         <is>
@@ -19553,9 +20813,11 @@
         <v>-322586543.6874785</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
-      </c>
-      <c r="I580" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I580" t="n">
+        <v>15.65</v>
+      </c>
       <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr">
         <is>
@@ -19590,9 +20852,11 @@
         <v>-322722553.9330785</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I581" t="n">
+        <v>15.51</v>
+      </c>
       <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr">
         <is>
@@ -19627,7 +20891,7 @@
         <v>-322722553.9330785</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I582" t="n">
         <v>15.5</v>
@@ -19666,7 +20930,7 @@
         <v>-322722553.9330785</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I583" t="n">
         <v>15.5</v>
@@ -19705,7 +20969,7 @@
         <v>-322700146.8376785</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I584" t="n">
         <v>15.5</v>
@@ -19744,7 +21008,7 @@
         <v>-322677293.4740785</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I585" t="n">
         <v>15.51</v>
@@ -19783,7 +21047,7 @@
         <v>-322667290.2486785</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I586" t="n">
         <v>15.55</v>
@@ -19822,7 +21086,7 @@
         <v>-322678113.2559785</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I587" t="n">
         <v>15.66</v>
@@ -19861,7 +21125,7 @@
         <v>-322642743.4689715</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I588" t="n">
         <v>15.55</v>
@@ -19900,7 +21164,7 @@
         <v>-322659258.2003715</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I589" t="n">
         <v>15.67</v>
@@ -19939,7 +21203,7 @@
         <v>-322619591.2988786</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I590" t="n">
         <v>15.64</v>
@@ -19978,9 +21242,11 @@
         <v>-322621954.2988786</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I591" t="n">
+        <v>15.69</v>
+      </c>
       <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
@@ -20015,9 +21281,11 @@
         <v>-322621954.2988786</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I592" t="n">
+        <v>15.67</v>
+      </c>
       <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
@@ -20052,9 +21320,11 @@
         <v>-322626188.9584786</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I593" t="n">
+        <v>15.67</v>
+      </c>
       <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr">
         <is>
@@ -20089,9 +21359,11 @@
         <v>-322634210.0536786</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I594" t="n">
+        <v>15.64</v>
+      </c>
       <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
@@ -20126,9 +21398,11 @@
         <v>-322634210.0536786</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I595" t="n">
+        <v>15.63</v>
+      </c>
       <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
@@ -20163,9 +21437,11 @@
         <v>-322719967.2994786</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
-      </c>
-      <c r="I596" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I596" t="n">
+        <v>15.63</v>
+      </c>
       <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr">
         <is>
@@ -20200,9 +21476,11 @@
         <v>-322545031.7748786</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
-      </c>
-      <c r="I597" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I597" t="n">
+        <v>15.55</v>
+      </c>
       <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr">
         <is>
@@ -20237,9 +21515,11 @@
         <v>-322547743.2350786</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
-      </c>
-      <c r="I598" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I598" t="n">
+        <v>15.82</v>
+      </c>
       <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr">
         <is>
@@ -20348,11 +21628,9 @@
         <v>-322772838.0571786</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
-      </c>
-      <c r="I601" t="n">
-        <v>15.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr">
         <is>
@@ -20387,11 +21665,9 @@
         <v>-322772838.0571786</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
-      </c>
-      <c r="I602" t="n">
-        <v>15.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
@@ -20426,9 +21702,11 @@
         <v>-322754897.9938786</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
-      </c>
-      <c r="I603" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I603" t="n">
+        <v>15.59</v>
+      </c>
       <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
@@ -20463,7 +21741,7 @@
         <v>-322767460.5978786</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I604" t="n">
         <v>15.6</v>
@@ -20502,7 +21780,7 @@
         <v>-322767460.5978786</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I605" t="n">
         <v>15.59</v>
@@ -20541,7 +21819,7 @@
         <v>-322730970.7488786</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I606" t="n">
         <v>15.59</v>
@@ -20580,7 +21858,7 @@
         <v>-322748320.8851786</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I607" t="n">
         <v>15.6</v>
@@ -20619,7 +21897,7 @@
         <v>-322730217.8270786</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I608" t="n">
         <v>15.45</v>
@@ -20658,7 +21936,7 @@
         <v>-322730217.8270786</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I609" t="n">
         <v>15.58</v>
@@ -20697,7 +21975,7 @@
         <v>-322730217.8270786</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I610" t="n">
         <v>15.58</v>
@@ -20736,7 +22014,7 @@
         <v>-322745209.7373787</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I611" t="n">
         <v>15.58</v>
@@ -20775,7 +22053,7 @@
         <v>-322738839.0837787</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I612" t="n">
         <v>15.47</v>
@@ -20814,7 +22092,7 @@
         <v>-322732734.7027787</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I613" t="n">
         <v>15.58</v>
@@ -20853,7 +22131,7 @@
         <v>-322726364.0491787</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I614" t="n">
         <v>15.59</v>
@@ -20892,7 +22170,7 @@
         <v>-322723940.5889787</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I615" t="n">
         <v>15.6</v>
@@ -20931,7 +22209,7 @@
         <v>-322721165.6403787</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I616" t="n">
         <v>15.7</v>
@@ -20970,7 +22248,7 @@
         <v>-322721165.6403787</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I617" t="n">
         <v>15.79</v>
@@ -21009,7 +22287,7 @@
         <v>-322721165.6403787</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I618" t="n">
         <v>15.79</v>
@@ -21048,7 +22326,7 @@
         <v>-322721165.6403787</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I619" t="n">
         <v>15.79</v>
@@ -21087,9 +22365,11 @@
         <v>-322743572.7357787</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
-      </c>
-      <c r="I620" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I620" t="n">
+        <v>15.79</v>
+      </c>
       <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr">
         <is>
@@ -21124,7 +22404,7 @@
         <v>-322739626.2808787</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I621" t="n">
         <v>15.6</v>
@@ -21163,7 +22443,7 @@
         <v>-322739333.2015787</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I622" t="n">
         <v>15.61</v>
@@ -21202,7 +22482,7 @@
         <v>-322720287.5220787</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I623" t="n">
         <v>15.62</v>
@@ -21241,7 +22521,7 @@
         <v>-322737753.8818787</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I624" t="n">
         <v>15.79</v>
@@ -21280,7 +22560,7 @@
         <v>-322680897.9236787</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I625" t="n">
         <v>15.62</v>
@@ -21319,9 +22599,11 @@
         <v>-322680897.9236787</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
-      </c>
-      <c r="I626" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I626" t="n">
+        <v>15.79</v>
+      </c>
       <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr">
         <is>
@@ -21356,9 +22638,11 @@
         <v>-322680897.9236787</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
-      </c>
-      <c r="I627" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I627" t="n">
+        <v>15.79</v>
+      </c>
       <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
@@ -21393,9 +22677,11 @@
         <v>-322671806.2572787</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I628" t="n">
+        <v>15.79</v>
+      </c>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
@@ -21467,9 +22753,11 @@
         <v>-322615584.9607787</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I630" t="n">
+        <v>15.69</v>
+      </c>
       <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
@@ -21504,9 +22792,11 @@
         <v>-322615584.9607787</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
-      </c>
-      <c r="I631" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I631" t="n">
+        <v>15.7</v>
+      </c>
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
@@ -21541,9 +22831,11 @@
         <v>-322598429.6168787</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
-      </c>
-      <c r="I632" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I632" t="n">
+        <v>15.7</v>
+      </c>
       <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
@@ -21578,9 +22870,11 @@
         <v>-322598429.6168787</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>15.71</v>
+      </c>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
@@ -21615,9 +22909,11 @@
         <v>-322598429.6168787</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I634" t="n">
+        <v>15.71</v>
+      </c>
       <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
@@ -21652,9 +22948,11 @@
         <v>-322556804.9352787</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
-      </c>
-      <c r="I635" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I635" t="n">
+        <v>15.71</v>
+      </c>
       <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
@@ -21689,9 +22987,11 @@
         <v>-322556668.3778787</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I636" t="n">
+        <v>15.72</v>
+      </c>
       <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr">
         <is>
@@ -21763,9 +23063,11 @@
         <v>-322745694.2170787</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
-      </c>
-      <c r="I638" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I638" t="n">
+        <v>15.73</v>
+      </c>
       <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr">
         <is>
@@ -22318,9 +23620,11 @@
         <v>-322397094.177509</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
-      </c>
-      <c r="I653" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I653" t="n">
+        <v>15.81</v>
+      </c>
       <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr">
         <is>
@@ -22355,9 +23659,11 @@
         <v>-322428274.207109</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
-      </c>
-      <c r="I654" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I654" t="n">
+        <v>15.75</v>
+      </c>
       <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
@@ -22392,9 +23698,11 @@
         <v>-322385580.176309</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
-      </c>
-      <c r="I655" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I655" t="n">
+        <v>15.74</v>
+      </c>
       <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr">
         <is>
@@ -22429,9 +23737,11 @@
         <v>-322288399.0353091</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
-      </c>
-      <c r="I656" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I656" t="n">
+        <v>15.85</v>
+      </c>
       <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr">
         <is>
@@ -22466,9 +23776,11 @@
         <v>-321913835.9397091</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
-      </c>
-      <c r="I657" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I657" t="n">
+        <v>15.93</v>
+      </c>
       <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr">
         <is>
@@ -23872,9 +25184,11 @@
         <v>-346214885.1867006</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
-      </c>
-      <c r="I695" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I695" t="n">
+        <v>15.89</v>
+      </c>
       <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr">
         <is>
@@ -25944,9 +27258,11 @@
         <v>-346361149.8058746</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
-      </c>
-      <c r="I751" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I751" t="n">
+        <v>15.83</v>
+      </c>
       <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr">
         <is>
@@ -25981,9 +27297,11 @@
         <v>-345763222.0138746</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
-      </c>
-      <c r="I752" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I752" t="n">
+        <v>15.81</v>
+      </c>
       <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr">
         <is>
@@ -26018,9 +27336,11 @@
         <v>-345884027.1395746</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
-      </c>
-      <c r="I753" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I753" t="n">
+        <v>15.86</v>
+      </c>
       <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr">
         <is>
@@ -26055,9 +27375,11 @@
         <v>-345884027.1395746</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
-      </c>
-      <c r="I754" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I754" t="n">
+        <v>15.82</v>
+      </c>
       <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr">
         <is>
@@ -26092,9 +27414,11 @@
         <v>-347336038.5198746</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
-      </c>
-      <c r="I755" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I755" t="n">
+        <v>15.82</v>
+      </c>
       <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr">
         <is>
@@ -26203,9 +27527,11 @@
         <v>-345032187.1272746</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
-      </c>
-      <c r="I758" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I758" t="n">
+        <v>15.8</v>
+      </c>
       <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr">
         <is>
@@ -26240,9 +27566,11 @@
         <v>-344096098.8596746</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
-      </c>
-      <c r="I759" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I759" t="n">
+        <v>15.83</v>
+      </c>
       <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr">
         <is>
@@ -26721,9 +28049,11 @@
         <v>-343124023.5181746</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
-      </c>
-      <c r="I772" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I772" t="n">
+        <v>15.73</v>
+      </c>
       <c r="J772" t="inlineStr"/>
       <c r="K772" t="inlineStr">
         <is>
@@ -36541,6 +37871,6 @@
       <c r="M1037" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest SOC.xlsx
+++ b/BackTest/2020-01-11 BackTest SOC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-9108323.244461229</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-9116971.060261229</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-9430416.496461229</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-9419610.69776123</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-9402781.91066123</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-9402781.91066123</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-9333995.263161229</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-9333995.263161229</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-9333995.263161229</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-9394790.585961228</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-9490405.069061229</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-9490405.069061229</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-9550704.318822099</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-9887692.956122098</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-10346567.6977221</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-10248309.3955221</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-10274206.1047221</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-10352246.5185221</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-10277592.5975221</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-9932686.427679798</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-10039834.0344798</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-10200032.9160798</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-10568680.03480355</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-10560090.9454273</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-10277395.7162273</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-10209267.4462273</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-9826144.371427296</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-9827693.243927296</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-9908011.092327297</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-10096745.9439273</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-10096712.9779273</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-10096712.9779273</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-10193658.9621273</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-10177781.3545273</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-10177781.3545273</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-10177781.3545273</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>31263642.37009962</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>31263642.37009962</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-286017517.2393004</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-285933497.6984004</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-286176753.3514242</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-286176753.3514242</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-286176753.3514242</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-286109612.8095242</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-286244387.5423638</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-286115545.8071242</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-286047939.9573242</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-286175706.6927242</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-286449569.7297705</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-286644671.0875705</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-286701757.538359</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-286598348.9342714</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-286167623.9728714</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-286091902.7842366</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-285824479.6008996</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-285529258.8568715</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-285570641.5247715</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9856,17 +9856,11 @@
         <v>-287445153.7966742</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>15.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9895,17 +9889,11 @@
         <v>-287357315.4988742</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>15.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9934,17 +9922,11 @@
         <v>-287344611.4797742</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>16.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9973,17 +9955,11 @@
         <v>-287386087.9369742</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>16.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10012,17 +9988,11 @@
         <v>-287339347.4630954</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>16.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10051,17 +10021,11 @@
         <v>-287339379.4630954</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>16.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10090,17 +10054,11 @@
         <v>-287342089.1831954</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>16.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10129,17 +10087,11 @@
         <v>-287342058.1831954</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>16.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10168,17 +10120,11 @@
         <v>-287289829.4415954</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>16.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10207,17 +10153,11 @@
         <v>-287158909.9963499</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>16.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10250,11 +10190,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10287,11 +10223,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10324,11 +10256,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10361,11 +10289,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10394,15 +10318,11 @@
         <v>-286989315.8017954</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10431,15 +10351,11 @@
         <v>-286850576.3662953</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10468,15 +10384,11 @@
         <v>-286844511.8132954</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10509,11 +10421,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10546,11 +10454,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10583,11 +10487,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10620,11 +10520,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10657,11 +10553,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10694,11 +10586,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10731,11 +10619,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10768,11 +10652,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10805,11 +10685,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10842,11 +10718,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10879,11 +10751,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10916,11 +10784,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10953,11 +10817,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10990,11 +10850,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11027,11 +10883,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11064,11 +10916,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11101,11 +10949,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11138,11 +10982,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11175,11 +11015,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11212,11 +11048,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11249,11 +11081,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11286,11 +11114,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11323,11 +11147,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11360,11 +11180,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11397,11 +11213,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11434,11 +11246,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11471,11 +11279,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11508,11 +11312,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11545,11 +11345,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11582,11 +11378,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11619,11 +11411,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11656,11 +11444,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11693,11 +11477,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11730,11 +11510,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11767,11 +11543,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11800,15 +11572,11 @@
         <v>-277597927.0797684</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11837,15 +11605,11 @@
         <v>-277626609.3364683</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11874,15 +11638,11 @@
         <v>-280822173.5353683</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11911,15 +11671,11 @@
         <v>-280822173.5353683</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11948,15 +11704,11 @@
         <v>-272964073.4559683</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11989,11 +11741,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12026,11 +11774,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12063,11 +11807,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12100,11 +11840,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12137,11 +11873,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12174,11 +11906,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12211,11 +11939,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12248,11 +11972,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12285,11 +12005,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12322,11 +12038,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12359,11 +12071,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12396,11 +12104,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12433,11 +12137,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12470,11 +12170,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12507,11 +12203,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12544,11 +12236,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12581,11 +12269,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12618,11 +12302,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12655,11 +12335,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12692,11 +12368,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12729,11 +12401,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12766,11 +12434,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12803,11 +12467,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12840,11 +12500,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12877,11 +12533,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12914,11 +12566,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12951,11 +12599,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12984,15 +12628,11 @@
         <v>-315881399.9378844</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13021,15 +12661,11 @@
         <v>-315875115.7346845</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13058,15 +12694,11 @@
         <v>-315980733.8628845</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13095,15 +12727,11 @@
         <v>-315981933.1117845</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13132,15 +12760,11 @@
         <v>-315981933.1117845</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13169,15 +12793,11 @@
         <v>-316059468.2028844</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13206,15 +12826,11 @@
         <v>-316073843.4885845</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13247,11 +12863,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13284,11 +12896,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13317,15 +12925,11 @@
         <v>-316060328.7184893</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13358,11 +12962,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13395,11 +12995,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13432,11 +13028,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13469,11 +13061,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13506,11 +13094,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13543,11 +13127,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13580,11 +13160,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13617,11 +13193,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13654,11 +13226,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13691,11 +13259,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13728,11 +13292,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13765,11 +13325,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13798,15 +13354,11 @@
         <v>-316519578.0853762</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13835,15 +13387,11 @@
         <v>-316519478.0853762</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13872,15 +13420,11 @@
         <v>-316535185.0326762</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13909,15 +13453,11 @@
         <v>-316659747.9957762</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13946,15 +13486,11 @@
         <v>-316659747.9957762</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13983,15 +13519,11 @@
         <v>-316892134.0603762</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14020,15 +13552,11 @@
         <v>-316953144.9466763</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14057,15 +13585,11 @@
         <v>-317065555.6156763</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14094,17 +13618,11 @@
         <v>-317006929.1199763</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
-      </c>
-      <c r="I401" t="n">
-        <v>16.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14137,11 +13655,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14170,15 +13684,11 @@
         <v>-316979890.2016475</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14207,15 +13717,11 @@
         <v>-316980892.0206475</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14244,15 +13750,11 @@
         <v>-317000127.9063475</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14285,11 +13787,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14322,11 +13820,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14355,15 +13849,11 @@
         <v>-317162854.3920475</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14392,15 +13882,11 @@
         <v>-317162854.3920475</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14429,15 +13915,11 @@
         <v>-317319392.8151475</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14466,15 +13948,11 @@
         <v>-317315195.5740475</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14503,15 +13981,11 @@
         <v>-317364176.1846475</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14540,15 +14014,11 @@
         <v>-317519124.8497475</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14577,15 +14047,11 @@
         <v>-317515771.072769</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14614,15 +14080,11 @@
         <v>-317529852.4787691</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14651,15 +14113,11 @@
         <v>-317533165.202369</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14692,11 +14150,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14725,15 +14179,11 @@
         <v>-317533165.202369</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14766,11 +14216,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14803,11 +14249,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14840,11 +14282,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14877,11 +14315,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14914,11 +14348,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14951,11 +14381,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14988,11 +14414,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15025,11 +14447,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15062,11 +14480,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15099,11 +14513,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15136,11 +14546,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15173,11 +14579,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15210,11 +14612,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15247,11 +14645,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15284,11 +14678,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15321,11 +14711,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15358,11 +14744,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15395,11 +14777,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15432,11 +14810,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15469,11 +14843,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15506,11 +14876,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15543,11 +14909,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15580,11 +14942,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15617,11 +14975,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15654,11 +15008,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15691,11 +15041,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15728,11 +15074,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15765,11 +15107,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15802,11 +15140,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15839,11 +15173,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15876,11 +15206,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15913,11 +15239,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15950,11 +15272,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15987,11 +15305,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16024,11 +15338,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16061,11 +15371,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16098,11 +15404,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16135,11 +15437,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16172,11 +15470,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16209,11 +15503,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16246,11 +15536,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16283,11 +15569,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16320,11 +15602,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16357,11 +15635,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16394,11 +15668,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16431,11 +15701,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16468,11 +15734,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16505,11 +15767,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16542,11 +15800,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16579,11 +15833,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16616,11 +15866,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16653,11 +15899,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16690,11 +15932,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16727,11 +15965,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16764,11 +15998,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16801,11 +16031,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16838,11 +16064,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16875,11 +16097,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16912,11 +16130,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16949,11 +16163,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16986,11 +16196,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17023,11 +16229,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17060,11 +16262,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17097,11 +16295,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17134,11 +16328,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17171,11 +16361,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17208,11 +16394,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17245,11 +16427,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17282,11 +16460,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17319,11 +16493,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17356,11 +16526,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17393,11 +16559,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17430,11 +16592,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17467,11 +16625,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17504,11 +16658,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17541,11 +16691,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17578,11 +16724,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17615,11 +16757,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17652,11 +16790,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17689,11 +16823,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17726,11 +16856,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17763,11 +16889,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17800,11 +16922,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17837,11 +16955,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17874,11 +16988,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17911,11 +17021,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17948,11 +17054,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17985,11 +17087,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18022,11 +17120,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18059,11 +17153,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18096,11 +17186,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18133,11 +17219,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18170,11 +17252,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18207,11 +17285,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18244,11 +17318,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18281,11 +17351,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18318,11 +17384,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18355,11 +17417,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18392,11 +17450,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18429,11 +17483,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18466,11 +17516,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18503,11 +17549,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18540,11 +17582,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18577,11 +17615,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18614,11 +17648,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18651,11 +17681,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18688,11 +17714,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18725,11 +17747,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18762,11 +17780,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18799,11 +17813,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18836,11 +17846,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18873,11 +17879,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18910,11 +17912,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18943,17 +17941,11 @@
         <v>-321479498.6848409</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
-      </c>
-      <c r="I532" t="n">
-        <v>15.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18982,17 +17974,11 @@
         <v>-321691106.0882409</v>
       </c>
       <c r="H533" t="n">
-        <v>1</v>
-      </c>
-      <c r="I533" t="n">
-        <v>15.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -19021,17 +18007,11 @@
         <v>-321755926.7308409</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
-      </c>
-      <c r="I534" t="n">
-        <v>15.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -19060,17 +18040,11 @@
         <v>-322422739.0820409</v>
       </c>
       <c r="H535" t="n">
-        <v>1</v>
-      </c>
-      <c r="I535" t="n">
-        <v>15.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -19099,17 +18073,11 @@
         <v>-322422739.0820409</v>
       </c>
       <c r="H536" t="n">
-        <v>1</v>
-      </c>
-      <c r="I536" t="n">
-        <v>15.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19138,17 +18106,11 @@
         <v>-322422739.0820409</v>
       </c>
       <c r="H537" t="n">
-        <v>1</v>
-      </c>
-      <c r="I537" t="n">
-        <v>15.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19177,17 +18139,11 @@
         <v>-322862555.7252409</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
-      </c>
-      <c r="I538" t="n">
-        <v>15.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19224,7 +18180,7 @@
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L539" t="n">
@@ -19684,11 +18640,9 @@
         <v>-322520967.6512396</v>
       </c>
       <c r="H551" t="n">
-        <v>1</v>
-      </c>
-      <c r="I551" t="n">
-        <v>16.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
@@ -19723,11 +18677,9 @@
         <v>-322606651.2861395</v>
       </c>
       <c r="H552" t="n">
-        <v>1</v>
-      </c>
-      <c r="I552" t="n">
-        <v>15.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr">
         <is>
@@ -19762,11 +18714,9 @@
         <v>-322711850.7212396</v>
       </c>
       <c r="H553" t="n">
-        <v>1</v>
-      </c>
-      <c r="I553" t="n">
-        <v>15.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
@@ -19801,11 +18751,9 @@
         <v>-322735895.8340396</v>
       </c>
       <c r="H554" t="n">
-        <v>1</v>
-      </c>
-      <c r="I554" t="n">
-        <v>15.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
@@ -19840,11 +18788,9 @@
         <v>-322735895.8340396</v>
       </c>
       <c r="H555" t="n">
-        <v>1</v>
-      </c>
-      <c r="I555" t="n">
-        <v>15.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr">
         <is>
@@ -19879,11 +18825,9 @@
         <v>-322659620.4543396</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
-      </c>
-      <c r="I556" t="n">
-        <v>15.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
@@ -19918,11 +18862,9 @@
         <v>-322734402.4979396</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
-      </c>
-      <c r="I557" t="n">
-        <v>15.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
@@ -19957,11 +18899,9 @@
         <v>-322734402.4979396</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
-      </c>
-      <c r="I558" t="n">
-        <v>15.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
@@ -19996,11 +18936,9 @@
         <v>-322734370.4979396</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
-      </c>
-      <c r="I559" t="n">
-        <v>15.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
@@ -20035,11 +18973,9 @@
         <v>-322734370.4979396</v>
       </c>
       <c r="H560" t="n">
-        <v>1</v>
-      </c>
-      <c r="I560" t="n">
-        <v>15.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr">
         <is>
@@ -20074,11 +19010,9 @@
         <v>-322741541.5870396</v>
       </c>
       <c r="H561" t="n">
-        <v>1</v>
-      </c>
-      <c r="I561" t="n">
-        <v>15.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
@@ -20113,11 +19047,9 @@
         <v>-322737621.7276396</v>
       </c>
       <c r="H562" t="n">
-        <v>1</v>
-      </c>
-      <c r="I562" t="n">
-        <v>15.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
@@ -20152,11 +19084,9 @@
         <v>-322737621.7276396</v>
       </c>
       <c r="H563" t="n">
-        <v>1</v>
-      </c>
-      <c r="I563" t="n">
-        <v>15.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
@@ -20191,11 +19121,9 @@
         <v>-322746158.5768396</v>
       </c>
       <c r="H564" t="n">
-        <v>1</v>
-      </c>
-      <c r="I564" t="n">
-        <v>15.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr">
         <is>
@@ -20230,11 +19158,9 @@
         <v>-322649426.8269785</v>
       </c>
       <c r="H565" t="n">
-        <v>1</v>
-      </c>
-      <c r="I565" t="n">
-        <v>15.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr">
         <is>
@@ -20269,11 +19195,9 @@
         <v>-322694909.4459785</v>
       </c>
       <c r="H566" t="n">
-        <v>1</v>
-      </c>
-      <c r="I566" t="n">
-        <v>15.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr">
         <is>
@@ -20345,11 +19269,9 @@
         <v>-322746886.8409785</v>
       </c>
       <c r="H568" t="n">
-        <v>1</v>
-      </c>
-      <c r="I568" t="n">
-        <v>15.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr">
         <is>
@@ -20384,11 +19306,9 @@
         <v>-322785468.3609785</v>
       </c>
       <c r="H569" t="n">
-        <v>1</v>
-      </c>
-      <c r="I569" t="n">
-        <v>15.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr">
         <is>
@@ -20423,11 +19343,9 @@
         <v>-322825706.8871785</v>
       </c>
       <c r="H570" t="n">
-        <v>1</v>
-      </c>
-      <c r="I570" t="n">
-        <v>15.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr">
         <is>
@@ -20462,11 +19380,9 @@
         <v>-322825706.8871785</v>
       </c>
       <c r="H571" t="n">
-        <v>1</v>
-      </c>
-      <c r="I571" t="n">
-        <v>15.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr">
         <is>
@@ -20501,11 +19417,9 @@
         <v>-322825706.8871785</v>
       </c>
       <c r="H572" t="n">
-        <v>1</v>
-      </c>
-      <c r="I572" t="n">
-        <v>15.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr">
         <is>
@@ -20540,11 +19454,9 @@
         <v>-322825706.8871785</v>
       </c>
       <c r="H573" t="n">
-        <v>1</v>
-      </c>
-      <c r="I573" t="n">
-        <v>15.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr">
         <is>
@@ -20579,11 +19491,9 @@
         <v>-322941454.5403785</v>
       </c>
       <c r="H574" t="n">
-        <v>1</v>
-      </c>
-      <c r="I574" t="n">
-        <v>15.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr">
         <is>
@@ -20618,11 +19528,9 @@
         <v>-322845115.5109785</v>
       </c>
       <c r="H575" t="n">
-        <v>1</v>
-      </c>
-      <c r="I575" t="n">
-        <v>15.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr">
         <is>
@@ -20657,11 +19565,9 @@
         <v>-322845115.5109785</v>
       </c>
       <c r="H576" t="n">
-        <v>1</v>
-      </c>
-      <c r="I576" t="n">
-        <v>15.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr">
         <is>
@@ -20696,11 +19602,9 @@
         <v>-322559786.0152785</v>
       </c>
       <c r="H577" t="n">
-        <v>1</v>
-      </c>
-      <c r="I577" t="n">
-        <v>15.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr">
         <is>
@@ -20735,11 +19639,9 @@
         <v>-322554622.0152785</v>
       </c>
       <c r="H578" t="n">
-        <v>1</v>
-      </c>
-      <c r="I578" t="n">
-        <v>15.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr">
         <is>
@@ -20774,11 +19676,9 @@
         <v>-322554622.0152785</v>
       </c>
       <c r="H579" t="n">
-        <v>1</v>
-      </c>
-      <c r="I579" t="n">
-        <v>15.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr">
         <is>
@@ -20813,11 +19713,9 @@
         <v>-322586543.6874785</v>
       </c>
       <c r="H580" t="n">
-        <v>1</v>
-      </c>
-      <c r="I580" t="n">
-        <v>15.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr">
         <is>
@@ -20852,11 +19750,9 @@
         <v>-322722553.9330785</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
-      </c>
-      <c r="I581" t="n">
-        <v>15.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr">
         <is>
@@ -20891,11 +19787,9 @@
         <v>-322722553.9330785</v>
       </c>
       <c r="H582" t="n">
-        <v>1</v>
-      </c>
-      <c r="I582" t="n">
-        <v>15.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr">
         <is>
@@ -20930,11 +19824,9 @@
         <v>-322722553.9330785</v>
       </c>
       <c r="H583" t="n">
-        <v>1</v>
-      </c>
-      <c r="I583" t="n">
-        <v>15.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr">
         <is>
@@ -20969,11 +19861,9 @@
         <v>-322700146.8376785</v>
       </c>
       <c r="H584" t="n">
-        <v>1</v>
-      </c>
-      <c r="I584" t="n">
-        <v>15.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr">
         <is>
@@ -21008,11 +19898,9 @@
         <v>-322677293.4740785</v>
       </c>
       <c r="H585" t="n">
-        <v>1</v>
-      </c>
-      <c r="I585" t="n">
-        <v>15.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr">
         <is>
@@ -21047,11 +19935,9 @@
         <v>-322667290.2486785</v>
       </c>
       <c r="H586" t="n">
-        <v>1</v>
-      </c>
-      <c r="I586" t="n">
-        <v>15.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr">
         <is>
@@ -21086,11 +19972,9 @@
         <v>-322678113.2559785</v>
       </c>
       <c r="H587" t="n">
-        <v>1</v>
-      </c>
-      <c r="I587" t="n">
-        <v>15.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr">
         <is>
@@ -21125,11 +20009,9 @@
         <v>-322642743.4689715</v>
       </c>
       <c r="H588" t="n">
-        <v>1</v>
-      </c>
-      <c r="I588" t="n">
-        <v>15.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr">
         <is>
@@ -21164,11 +20046,9 @@
         <v>-322659258.2003715</v>
       </c>
       <c r="H589" t="n">
-        <v>1</v>
-      </c>
-      <c r="I589" t="n">
-        <v>15.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr">
         <is>
@@ -21203,11 +20083,9 @@
         <v>-322619591.2988786</v>
       </c>
       <c r="H590" t="n">
-        <v>1</v>
-      </c>
-      <c r="I590" t="n">
-        <v>15.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr">
         <is>
@@ -21242,11 +20120,9 @@
         <v>-322621954.2988786</v>
       </c>
       <c r="H591" t="n">
-        <v>1</v>
-      </c>
-      <c r="I591" t="n">
-        <v>15.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
@@ -21281,11 +20157,9 @@
         <v>-322621954.2988786</v>
       </c>
       <c r="H592" t="n">
-        <v>1</v>
-      </c>
-      <c r="I592" t="n">
-        <v>15.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
@@ -21320,11 +20194,9 @@
         <v>-322626188.9584786</v>
       </c>
       <c r="H593" t="n">
-        <v>1</v>
-      </c>
-      <c r="I593" t="n">
-        <v>15.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr">
         <is>
@@ -21359,11 +20231,9 @@
         <v>-322634210.0536786</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
-      </c>
-      <c r="I594" t="n">
-        <v>15.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
@@ -21398,11 +20268,9 @@
         <v>-322634210.0536786</v>
       </c>
       <c r="H595" t="n">
-        <v>1</v>
-      </c>
-      <c r="I595" t="n">
-        <v>15.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
@@ -21437,11 +20305,9 @@
         <v>-322719967.2994786</v>
       </c>
       <c r="H596" t="n">
-        <v>1</v>
-      </c>
-      <c r="I596" t="n">
-        <v>15.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr">
         <is>
@@ -21476,11 +20342,9 @@
         <v>-322545031.7748786</v>
       </c>
       <c r="H597" t="n">
-        <v>1</v>
-      </c>
-      <c r="I597" t="n">
-        <v>15.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr">
         <is>
@@ -21515,11 +20379,9 @@
         <v>-322547743.2350786</v>
       </c>
       <c r="H598" t="n">
-        <v>1</v>
-      </c>
-      <c r="I598" t="n">
-        <v>15.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr">
         <is>
@@ -21702,11 +20564,9 @@
         <v>-322754897.9938786</v>
       </c>
       <c r="H603" t="n">
-        <v>1</v>
-      </c>
-      <c r="I603" t="n">
-        <v>15.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
@@ -21741,11 +20601,9 @@
         <v>-322767460.5978786</v>
       </c>
       <c r="H604" t="n">
-        <v>1</v>
-      </c>
-      <c r="I604" t="n">
-        <v>15.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
@@ -21780,11 +20638,9 @@
         <v>-322767460.5978786</v>
       </c>
       <c r="H605" t="n">
-        <v>1</v>
-      </c>
-      <c r="I605" t="n">
-        <v>15.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr">
         <is>
@@ -21819,11 +20675,9 @@
         <v>-322730970.7488786</v>
       </c>
       <c r="H606" t="n">
-        <v>1</v>
-      </c>
-      <c r="I606" t="n">
-        <v>15.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr">
         <is>
@@ -21858,11 +20712,9 @@
         <v>-322748320.8851786</v>
       </c>
       <c r="H607" t="n">
-        <v>1</v>
-      </c>
-      <c r="I607" t="n">
-        <v>15.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr">
         <is>
@@ -21897,11 +20749,9 @@
         <v>-322730217.8270786</v>
       </c>
       <c r="H608" t="n">
-        <v>1</v>
-      </c>
-      <c r="I608" t="n">
-        <v>15.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
@@ -21936,11 +20786,9 @@
         <v>-322730217.8270786</v>
       </c>
       <c r="H609" t="n">
-        <v>1</v>
-      </c>
-      <c r="I609" t="n">
-        <v>15.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr">
         <is>
@@ -21975,11 +20823,9 @@
         <v>-322730217.8270786</v>
       </c>
       <c r="H610" t="n">
-        <v>1</v>
-      </c>
-      <c r="I610" t="n">
-        <v>15.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
@@ -22014,11 +20860,9 @@
         <v>-322745209.7373787</v>
       </c>
       <c r="H611" t="n">
-        <v>1</v>
-      </c>
-      <c r="I611" t="n">
-        <v>15.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
@@ -22053,11 +20897,9 @@
         <v>-322738839.0837787</v>
       </c>
       <c r="H612" t="n">
-        <v>1</v>
-      </c>
-      <c r="I612" t="n">
-        <v>15.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
@@ -22092,11 +20934,9 @@
         <v>-322732734.7027787</v>
       </c>
       <c r="H613" t="n">
-        <v>1</v>
-      </c>
-      <c r="I613" t="n">
-        <v>15.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
@@ -22131,11 +20971,9 @@
         <v>-322726364.0491787</v>
       </c>
       <c r="H614" t="n">
-        <v>1</v>
-      </c>
-      <c r="I614" t="n">
-        <v>15.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
@@ -22170,11 +21008,9 @@
         <v>-322723940.5889787</v>
       </c>
       <c r="H615" t="n">
-        <v>1</v>
-      </c>
-      <c r="I615" t="n">
-        <v>15.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
@@ -22209,11 +21045,9 @@
         <v>-322721165.6403787</v>
       </c>
       <c r="H616" t="n">
-        <v>1</v>
-      </c>
-      <c r="I616" t="n">
-        <v>15.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
@@ -22248,11 +21082,9 @@
         <v>-322721165.6403787</v>
       </c>
       <c r="H617" t="n">
-        <v>1</v>
-      </c>
-      <c r="I617" t="n">
-        <v>15.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr">
         <is>
@@ -22287,11 +21119,9 @@
         <v>-322721165.6403787</v>
       </c>
       <c r="H618" t="n">
-        <v>1</v>
-      </c>
-      <c r="I618" t="n">
-        <v>15.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr">
         <is>
@@ -22326,11 +21156,9 @@
         <v>-322721165.6403787</v>
       </c>
       <c r="H619" t="n">
-        <v>1</v>
-      </c>
-      <c r="I619" t="n">
-        <v>15.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr">
         <is>
@@ -22365,11 +21193,9 @@
         <v>-322743572.7357787</v>
       </c>
       <c r="H620" t="n">
-        <v>1</v>
-      </c>
-      <c r="I620" t="n">
-        <v>15.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr">
         <is>
@@ -22404,11 +21230,9 @@
         <v>-322739626.2808787</v>
       </c>
       <c r="H621" t="n">
-        <v>1</v>
-      </c>
-      <c r="I621" t="n">
-        <v>15.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
@@ -22443,11 +21267,9 @@
         <v>-322739333.2015787</v>
       </c>
       <c r="H622" t="n">
-        <v>1</v>
-      </c>
-      <c r="I622" t="n">
-        <v>15.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
@@ -22482,11 +21304,9 @@
         <v>-322720287.5220787</v>
       </c>
       <c r="H623" t="n">
-        <v>1</v>
-      </c>
-      <c r="I623" t="n">
-        <v>15.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
@@ -22521,11 +21341,9 @@
         <v>-322737753.8818787</v>
       </c>
       <c r="H624" t="n">
-        <v>1</v>
-      </c>
-      <c r="I624" t="n">
-        <v>15.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
@@ -22560,11 +21378,9 @@
         <v>-322680897.9236787</v>
       </c>
       <c r="H625" t="n">
-        <v>1</v>
-      </c>
-      <c r="I625" t="n">
-        <v>15.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr">
         <is>
@@ -22599,11 +21415,9 @@
         <v>-322680897.9236787</v>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
-      </c>
-      <c r="I626" t="n">
-        <v>15.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr">
         <is>
@@ -22638,11 +21452,9 @@
         <v>-322680897.9236787</v>
       </c>
       <c r="H627" t="n">
-        <v>1</v>
-      </c>
-      <c r="I627" t="n">
-        <v>15.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
@@ -22677,11 +21489,9 @@
         <v>-322671806.2572787</v>
       </c>
       <c r="H628" t="n">
-        <v>1</v>
-      </c>
-      <c r="I628" t="n">
-        <v>15.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
@@ -22753,11 +21563,9 @@
         <v>-322615584.9607787</v>
       </c>
       <c r="H630" t="n">
-        <v>1</v>
-      </c>
-      <c r="I630" t="n">
-        <v>15.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
@@ -22792,11 +21600,9 @@
         <v>-322615584.9607787</v>
       </c>
       <c r="H631" t="n">
-        <v>1</v>
-      </c>
-      <c r="I631" t="n">
-        <v>15.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
@@ -22831,11 +21637,9 @@
         <v>-322598429.6168787</v>
       </c>
       <c r="H632" t="n">
-        <v>1</v>
-      </c>
-      <c r="I632" t="n">
-        <v>15.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
@@ -22870,11 +21674,9 @@
         <v>-322598429.6168787</v>
       </c>
       <c r="H633" t="n">
-        <v>1</v>
-      </c>
-      <c r="I633" t="n">
-        <v>15.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
@@ -22909,11 +21711,9 @@
         <v>-322598429.6168787</v>
       </c>
       <c r="H634" t="n">
-        <v>1</v>
-      </c>
-      <c r="I634" t="n">
-        <v>15.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
@@ -22948,11 +21748,9 @@
         <v>-322556804.9352787</v>
       </c>
       <c r="H635" t="n">
-        <v>1</v>
-      </c>
-      <c r="I635" t="n">
-        <v>15.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
@@ -22987,11 +21785,9 @@
         <v>-322556668.3778787</v>
       </c>
       <c r="H636" t="n">
-        <v>1</v>
-      </c>
-      <c r="I636" t="n">
-        <v>15.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr">
         <is>
@@ -23063,11 +21859,9 @@
         <v>-322745694.2170787</v>
       </c>
       <c r="H638" t="n">
-        <v>1</v>
-      </c>
-      <c r="I638" t="n">
-        <v>15.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr">
         <is>
@@ -23620,11 +22414,9 @@
         <v>-322397094.177509</v>
       </c>
       <c r="H653" t="n">
-        <v>1</v>
-      </c>
-      <c r="I653" t="n">
-        <v>15.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr">
         <is>
@@ -23659,11 +22451,9 @@
         <v>-322428274.207109</v>
       </c>
       <c r="H654" t="n">
-        <v>1</v>
-      </c>
-      <c r="I654" t="n">
-        <v>15.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
@@ -23698,11 +22488,9 @@
         <v>-322385580.176309</v>
       </c>
       <c r="H655" t="n">
-        <v>1</v>
-      </c>
-      <c r="I655" t="n">
-        <v>15.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr">
         <is>
@@ -23737,11 +22525,9 @@
         <v>-322288399.0353091</v>
       </c>
       <c r="H656" t="n">
-        <v>1</v>
-      </c>
-      <c r="I656" t="n">
-        <v>15.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr">
         <is>
@@ -23776,11 +22562,9 @@
         <v>-321913835.9397091</v>
       </c>
       <c r="H657" t="n">
-        <v>1</v>
-      </c>
-      <c r="I657" t="n">
-        <v>15.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr">
         <is>
@@ -25184,11 +23968,9 @@
         <v>-346214885.1867006</v>
       </c>
       <c r="H695" t="n">
-        <v>1</v>
-      </c>
-      <c r="I695" t="n">
-        <v>15.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr">
         <is>
@@ -27258,11 +26040,9 @@
         <v>-346361149.8058746</v>
       </c>
       <c r="H751" t="n">
-        <v>1</v>
-      </c>
-      <c r="I751" t="n">
-        <v>15.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr">
         <is>
@@ -27297,11 +26077,9 @@
         <v>-345763222.0138746</v>
       </c>
       <c r="H752" t="n">
-        <v>1</v>
-      </c>
-      <c r="I752" t="n">
-        <v>15.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr">
         <is>
@@ -27336,11 +26114,9 @@
         <v>-345884027.1395746</v>
       </c>
       <c r="H753" t="n">
-        <v>1</v>
-      </c>
-      <c r="I753" t="n">
-        <v>15.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr">
         <is>
@@ -27375,11 +26151,9 @@
         <v>-345884027.1395746</v>
       </c>
       <c r="H754" t="n">
-        <v>1</v>
-      </c>
-      <c r="I754" t="n">
-        <v>15.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr">
         <is>
@@ -27414,11 +26188,9 @@
         <v>-347336038.5198746</v>
       </c>
       <c r="H755" t="n">
-        <v>1</v>
-      </c>
-      <c r="I755" t="n">
-        <v>15.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr">
         <is>
@@ -27527,11 +26299,9 @@
         <v>-345032187.1272746</v>
       </c>
       <c r="H758" t="n">
-        <v>1</v>
-      </c>
-      <c r="I758" t="n">
-        <v>15.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr">
         <is>
@@ -27566,11 +26336,9 @@
         <v>-344096098.8596746</v>
       </c>
       <c r="H759" t="n">
-        <v>1</v>
-      </c>
-      <c r="I759" t="n">
-        <v>15.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr">
         <is>
@@ -28049,11 +26817,9 @@
         <v>-343124023.5181746</v>
       </c>
       <c r="H772" t="n">
-        <v>1</v>
-      </c>
-      <c r="I772" t="n">
-        <v>15.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
       <c r="K772" t="inlineStr">
         <is>
@@ -29753,18 +28519,16 @@
         <v>-344137914.0043278</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L818" t="n">
-        <v>1</v>
-      </c>
+      <c r="L818" t="inlineStr"/>
       <c r="M818" t="inlineStr"/>
     </row>
     <row r="819">
@@ -29790,15 +28554,11 @@
         <v>-344138161.2804278</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K819" t="inlineStr"/>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -29831,11 +28591,7 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K820" t="inlineStr"/>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -29868,11 +28624,7 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K821" t="inlineStr"/>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -29905,11 +28657,7 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K822" t="inlineStr"/>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -29942,11 +28690,7 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K823" t="inlineStr"/>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -29979,11 +28723,7 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K824" t="inlineStr"/>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -30016,11 +28756,7 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K825" t="inlineStr"/>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -30053,11 +28789,7 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K826" t="inlineStr"/>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -30090,11 +28822,7 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K827" t="inlineStr"/>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -30127,11 +28855,7 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K828" t="inlineStr"/>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -30164,11 +28888,7 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K829" t="inlineStr"/>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -30201,11 +28921,7 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K830" t="inlineStr"/>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -30238,11 +28954,7 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K831" t="inlineStr"/>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -30275,11 +28987,7 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K832" t="inlineStr"/>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -30312,11 +29020,7 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K833" t="inlineStr"/>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -30349,11 +29053,7 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K834" t="inlineStr"/>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -30386,11 +29086,7 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K835" t="inlineStr"/>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -30423,11 +29119,7 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K836" t="inlineStr"/>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -30460,11 +29152,7 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K837" t="inlineStr"/>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -30497,11 +29185,7 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K838" t="inlineStr"/>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -30534,11 +29218,7 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K839" t="inlineStr"/>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -30571,11 +29251,7 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K840" t="inlineStr"/>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -30608,11 +29284,7 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K841" t="inlineStr"/>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -30645,11 +29317,7 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K842" t="inlineStr"/>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -30682,11 +29350,7 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K843" t="inlineStr"/>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -30719,11 +29383,7 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K844" t="inlineStr"/>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -30756,11 +29416,7 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K845" t="inlineStr"/>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -30793,11 +29449,7 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K846" t="inlineStr"/>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -30830,11 +29482,7 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K847" t="inlineStr"/>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -30867,11 +29515,7 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K848" t="inlineStr"/>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -30904,11 +29548,7 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K849" t="inlineStr"/>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -30941,11 +29581,7 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K850" t="inlineStr"/>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -30978,11 +29614,7 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K851" t="inlineStr"/>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -31015,11 +29647,7 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K852" t="inlineStr"/>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -31052,11 +29680,7 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K853" t="inlineStr"/>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -31089,11 +29713,7 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K854" t="inlineStr"/>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -31126,11 +29746,7 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K855" t="inlineStr"/>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -31163,11 +29779,7 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K856" t="inlineStr"/>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -31200,11 +29812,7 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K857" t="inlineStr"/>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -31237,11 +29845,7 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K858" t="inlineStr"/>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -31274,11 +29878,7 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K859" t="inlineStr"/>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -31311,11 +29911,7 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K860" t="inlineStr"/>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -31348,11 +29944,7 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K861" t="inlineStr"/>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -31385,11 +29977,7 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K862" t="inlineStr"/>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -31422,11 +30010,7 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K863" t="inlineStr"/>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -31459,11 +30043,7 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K864" t="inlineStr"/>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -31496,11 +30076,7 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K865" t="inlineStr"/>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -31533,11 +30109,7 @@
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K866" t="inlineStr"/>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -31570,11 +30142,7 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K867" t="inlineStr"/>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -31607,11 +30175,7 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K868" t="inlineStr"/>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -31644,11 +30208,7 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K869" t="inlineStr"/>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -31681,11 +30241,7 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K870" t="inlineStr"/>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -31718,11 +30274,7 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K871" t="inlineStr"/>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -31755,11 +30307,7 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K872" t="inlineStr"/>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -31792,11 +30340,7 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K873" t="inlineStr"/>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -31829,11 +30373,7 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K874" t="inlineStr"/>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -31866,11 +30406,7 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K875" t="inlineStr"/>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -31903,11 +30439,7 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K876" t="inlineStr"/>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -31940,11 +30472,7 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K877" t="inlineStr"/>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -31977,11 +30505,7 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K878" t="inlineStr"/>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -32014,11 +30538,7 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K879" t="inlineStr"/>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -32051,11 +30571,7 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K880" t="inlineStr"/>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -32088,11 +30604,7 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K881" t="inlineStr"/>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -32125,11 +30637,7 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K882" t="inlineStr"/>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -32162,11 +30670,7 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K883" t="inlineStr"/>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -32199,11 +30703,7 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K884" t="inlineStr"/>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -32236,11 +30736,7 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K885" t="inlineStr"/>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -32273,11 +30769,7 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K886" t="inlineStr"/>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -32310,11 +30802,7 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K887" t="inlineStr"/>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -32347,11 +30835,7 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K888" t="inlineStr"/>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -32384,11 +30868,7 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K889" t="inlineStr"/>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -32421,11 +30901,7 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K890" t="inlineStr"/>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -32458,11 +30934,7 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K891" t="inlineStr"/>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -32495,11 +30967,7 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K892" t="inlineStr"/>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -32532,11 +31000,7 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K893" t="inlineStr"/>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -32569,11 +31033,7 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K894" t="inlineStr"/>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -32606,11 +31066,7 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K895" t="inlineStr"/>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -32643,11 +31099,7 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K896" t="inlineStr"/>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -32680,11 +31132,7 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K897" t="inlineStr"/>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -32717,11 +31165,7 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K898" t="inlineStr"/>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -32754,11 +31198,7 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K899" t="inlineStr"/>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -32791,11 +31231,7 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K900" t="inlineStr"/>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -32828,11 +31264,7 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K901" t="inlineStr"/>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -32865,11 +31297,7 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K902" t="inlineStr"/>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -32902,11 +31330,7 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K903" t="inlineStr"/>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -32939,11 +31363,7 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K904" t="inlineStr"/>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -32976,11 +31396,7 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K905" t="inlineStr"/>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -33013,11 +31429,7 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K906" t="inlineStr"/>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -33050,11 +31462,7 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K907" t="inlineStr"/>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -33087,11 +31495,7 @@
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K908" t="inlineStr"/>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -33124,11 +31528,7 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K909" t="inlineStr"/>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -33161,11 +31561,7 @@
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K910" t="inlineStr"/>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -33198,11 +31594,7 @@
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K911" t="inlineStr"/>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -33235,11 +31627,7 @@
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K912" t="inlineStr"/>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -33272,11 +31660,7 @@
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K913" t="inlineStr"/>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -33309,11 +31693,7 @@
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K914" t="inlineStr"/>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -33346,11 +31726,7 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K915" t="inlineStr"/>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -33383,11 +31759,7 @@
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K916" t="inlineStr"/>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -33420,11 +31792,7 @@
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K917" t="inlineStr"/>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -33457,11 +31825,7 @@
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K918" t="inlineStr"/>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -33494,11 +31858,7 @@
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K919" t="inlineStr"/>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -33531,11 +31891,7 @@
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K920" t="inlineStr"/>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -33568,11 +31924,7 @@
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K921" t="inlineStr"/>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -33605,11 +31957,7 @@
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K922" t="inlineStr"/>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -33642,11 +31990,7 @@
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K923" t="inlineStr"/>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -33679,11 +32023,7 @@
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K924" t="inlineStr"/>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -33716,11 +32056,7 @@
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K925" t="inlineStr"/>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -33753,11 +32089,7 @@
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K926" t="inlineStr"/>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -33790,11 +32122,7 @@
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K927" t="inlineStr"/>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -33827,11 +32155,7 @@
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K928" t="inlineStr"/>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -33864,11 +32188,7 @@
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K929" t="inlineStr"/>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -33901,11 +32221,7 @@
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K930" t="inlineStr"/>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -33938,11 +32254,7 @@
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K931" t="inlineStr"/>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -33975,11 +32287,7 @@
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K932" t="inlineStr"/>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -34012,11 +32320,7 @@
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K933" t="inlineStr"/>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -34049,11 +32353,7 @@
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K934" t="inlineStr"/>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -34086,11 +32386,7 @@
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K935" t="inlineStr"/>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -34123,11 +32419,7 @@
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K936" t="inlineStr"/>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -34160,11 +32452,7 @@
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K937" t="inlineStr"/>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -34197,11 +32485,7 @@
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K938" t="inlineStr"/>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -34234,11 +32518,7 @@
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K939" t="inlineStr"/>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -34271,11 +32551,7 @@
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K940" t="inlineStr"/>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -34308,11 +32584,7 @@
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K941" t="inlineStr"/>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -34345,11 +32617,7 @@
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K942" t="inlineStr"/>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -34382,11 +32650,7 @@
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K943" t="inlineStr"/>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -34419,11 +32683,7 @@
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K944" t="inlineStr"/>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -34456,11 +32716,7 @@
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K945" t="inlineStr"/>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -34493,11 +32749,7 @@
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K946" t="inlineStr"/>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -34530,11 +32782,7 @@
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K947" t="inlineStr"/>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -34567,11 +32815,7 @@
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K948" t="inlineStr"/>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -34604,11 +32848,7 @@
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K949" t="inlineStr"/>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -34641,11 +32881,7 @@
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K950" t="inlineStr"/>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -34678,11 +32914,7 @@
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K951" t="inlineStr"/>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -34715,11 +32947,7 @@
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K952" t="inlineStr"/>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -34752,11 +32980,7 @@
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K953" t="inlineStr"/>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -34789,11 +33013,7 @@
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K954" t="inlineStr"/>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -34826,11 +33046,7 @@
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K955" t="inlineStr"/>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -34863,11 +33079,7 @@
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K956" t="inlineStr"/>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -34900,11 +33112,7 @@
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K957" t="inlineStr"/>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -34937,11 +33145,7 @@
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K958" t="inlineStr"/>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -34974,11 +33178,7 @@
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K959" t="inlineStr"/>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -35011,11 +33211,7 @@
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K960" t="inlineStr"/>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -35048,11 +33244,7 @@
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K961" t="inlineStr"/>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -35085,11 +33277,7 @@
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K962" t="inlineStr"/>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -35122,11 +33310,7 @@
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K963" t="inlineStr"/>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -35159,11 +33343,7 @@
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K964" t="inlineStr"/>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -35196,11 +33376,7 @@
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K965" t="inlineStr"/>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -35233,11 +33409,7 @@
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K966" t="inlineStr"/>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -35270,11 +33442,7 @@
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K967" t="inlineStr"/>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -35307,11 +33475,7 @@
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K968" t="inlineStr"/>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -35344,11 +33508,7 @@
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K969" t="inlineStr"/>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -35381,11 +33541,7 @@
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K970" t="inlineStr"/>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -35418,11 +33574,7 @@
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K971" t="inlineStr"/>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -35455,11 +33607,7 @@
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K972" t="inlineStr"/>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -35492,11 +33640,7 @@
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K973" t="inlineStr"/>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -35529,11 +33673,7 @@
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K974" t="inlineStr"/>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -35566,11 +33706,7 @@
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K975" t="inlineStr"/>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -35603,11 +33739,7 @@
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K976" t="inlineStr"/>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -35640,11 +33772,7 @@
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K977" t="inlineStr"/>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -35677,11 +33805,7 @@
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K978" t="inlineStr"/>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -35714,11 +33838,7 @@
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K979" t="inlineStr"/>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -35751,11 +33871,7 @@
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K980" t="inlineStr"/>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -35788,11 +33904,7 @@
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K981" t="inlineStr"/>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -35825,11 +33937,7 @@
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K982" t="inlineStr"/>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -35862,11 +33970,7 @@
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K983" t="inlineStr"/>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -35899,11 +34003,7 @@
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K984" t="inlineStr"/>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -35936,11 +34036,7 @@
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K985" t="inlineStr"/>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -35973,11 +34069,7 @@
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K986" t="inlineStr"/>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -36010,11 +34102,7 @@
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K987" t="inlineStr"/>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -36047,11 +34135,7 @@
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K988" t="inlineStr"/>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -36084,11 +34168,7 @@
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K989" t="inlineStr"/>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -36121,11 +34201,7 @@
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K990" t="inlineStr"/>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -36158,11 +34234,7 @@
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K991" t="inlineStr"/>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -36195,11 +34267,7 @@
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K992" t="inlineStr"/>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -36232,11 +34300,7 @@
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K993" t="inlineStr"/>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -36269,11 +34333,7 @@
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K994" t="inlineStr"/>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -36306,11 +34366,7 @@
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K995" t="inlineStr"/>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -36343,11 +34399,7 @@
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K996" t="inlineStr"/>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -36380,11 +34432,7 @@
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K997" t="inlineStr"/>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -36417,11 +34465,7 @@
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K998" t="inlineStr"/>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -36454,11 +34498,7 @@
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K999" t="inlineStr"/>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -36491,11 +34531,7 @@
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1000" t="inlineStr"/>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -36528,11 +34564,7 @@
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1001" t="inlineStr"/>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -36565,11 +34597,7 @@
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1002" t="inlineStr"/>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -36602,11 +34630,7 @@
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1003" t="inlineStr"/>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -36639,11 +34663,7 @@
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1004" t="inlineStr"/>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -36676,11 +34696,7 @@
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1005" t="inlineStr"/>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -36713,11 +34729,7 @@
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1006" t="inlineStr"/>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -36750,11 +34762,7 @@
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1007" t="inlineStr"/>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -36787,11 +34795,7 @@
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1008" t="inlineStr"/>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -36824,11 +34828,7 @@
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1009" t="inlineStr"/>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -36861,11 +34861,7 @@
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1010" t="inlineStr"/>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -36898,11 +34894,7 @@
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1011" t="inlineStr"/>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -36935,11 +34927,7 @@
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1012" t="inlineStr"/>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -36972,11 +34960,7 @@
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1013" t="inlineStr"/>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -37009,11 +34993,7 @@
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1014" t="inlineStr"/>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -37046,11 +35026,7 @@
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1015" t="inlineStr"/>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -37083,11 +35059,7 @@
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1016" t="inlineStr"/>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -37120,11 +35092,7 @@
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1017" t="inlineStr"/>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -37157,11 +35125,7 @@
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1018" t="inlineStr"/>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -37194,11 +35158,7 @@
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1019" t="inlineStr"/>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -37231,11 +35191,7 @@
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1020" t="inlineStr"/>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -37268,11 +35224,7 @@
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1021" t="inlineStr"/>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -37305,11 +35257,7 @@
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1022" t="inlineStr"/>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -37342,11 +35290,7 @@
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1023" t="inlineStr"/>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -37379,11 +35323,7 @@
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1024" t="inlineStr"/>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -37416,11 +35356,7 @@
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1025" t="inlineStr"/>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -37453,11 +35389,7 @@
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1026" t="inlineStr"/>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -37490,11 +35422,7 @@
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1027" t="inlineStr"/>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -37527,11 +35455,7 @@
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1028" t="inlineStr"/>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -37564,11 +35488,7 @@
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1029" t="inlineStr"/>
       <c r="L1029" t="n">
         <v>1</v>
       </c>
@@ -37601,11 +35521,7 @@
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1030" t="inlineStr"/>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -37638,11 +35554,7 @@
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1031" t="inlineStr"/>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -37675,11 +35587,7 @@
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1032" t="inlineStr"/>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -37712,11 +35620,7 @@
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1033" t="inlineStr"/>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -37749,11 +35653,7 @@
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1034" t="inlineStr"/>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -37786,11 +35686,7 @@
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1035" t="inlineStr"/>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -37823,11 +35719,7 @@
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1036" t="inlineStr"/>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -37860,17 +35752,13 @@
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1037" t="inlineStr"/>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
       <c r="M1037" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest SOC.xlsx
+++ b/BackTest/2020-01-11 BackTest SOC.xlsx
@@ -2035,7 +2035,7 @@
         <v>-190429481.8131004</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-190429481.8131004</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-190429481.8131004</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-285654552.2696004</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-285933497.6984004</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-286176753.3514242</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-286176753.3514242</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-286176753.3514242</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-286109612.8095242</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-286244387.5423638</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-286115545.8071242</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-286047939.9573242</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-286175706.6927242</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-286175706.6927242</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-286175706.6927242</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-286172639.8427242</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-286373308.8163242</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-286378356.5873242</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-286340434.8494242</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-286115015.5637259</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-286130286.1166259</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-285889216.7240849</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-285399526.9816369</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-285472594.8378369</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-285472594.8378369</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-285340984.0744369</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-285628376.1235468</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-285628496.1235468</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-285628496.1235468</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-285673402.2195469</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-285673402.2195469</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-285677300.6608468</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-285792600.6961468</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-285723543.0643642</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-285756410.1075642</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-285581284.771467</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-285642856.671167</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-285676652.360067</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-285709658.968167</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-285709658.968167</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-285721155.486667</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-285829947.492667</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-285576155.663267</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-286449569.7297705</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-286644671.0875705</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-286701757.538359</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-286598348.9342714</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-286167623.9728714</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-286091902.7842366</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-285824479.6008996</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-285271430.1364743</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-285280788.2742743</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-285314986.3359743</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-285415261.8239743</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-285415261.8239743</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-285623643.4078742</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-285778823.6286742</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-285778765.6286742</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-285778824.6286742</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-285778824.6286742</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-286989315.8017954</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-286850576.3662953</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-286844511.8132954</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-277597927.0797684</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-277626609.3364683</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-280822173.5353683</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-280822173.5353683</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-272964073.4559683</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-315881399.9378844</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-315875115.7346845</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-315980733.8628845</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-315981933.1117845</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-315981933.1117845</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-316059468.2028844</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-316073843.4885845</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-316060328.7184893</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-316519578.0853762</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-316519478.0853762</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-316535185.0326762</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-316659747.9957762</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-316659747.9957762</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-316892134.0603762</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-316953144.9466763</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-317065555.6156763</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-316979890.2016475</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-316980892.0206475</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-317000127.9063475</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-317162854.3920475</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-317162854.3920475</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-317319392.8151475</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-317315195.5740475</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-317364176.1846475</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-317519124.8497475</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-317515771.072769</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-317529852.4787691</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-317533165.202369</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-317533165.202369</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -18172,17 +18172,11 @@
         <v>-323030174.8021409</v>
       </c>
       <c r="H539" t="n">
-        <v>1</v>
-      </c>
-      <c r="I539" t="n">
-        <v>15.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18211,17 +18205,11 @@
         <v>-323286456.9532409</v>
       </c>
       <c r="H540" t="n">
-        <v>1</v>
-      </c>
-      <c r="I540" t="n">
-        <v>15.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18250,17 +18238,11 @@
         <v>-323034602.1502751</v>
       </c>
       <c r="H541" t="n">
-        <v>1</v>
-      </c>
-      <c r="I541" t="n">
-        <v>15.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18289,17 +18271,11 @@
         <v>-323078872.4183751</v>
       </c>
       <c r="H542" t="n">
-        <v>1</v>
-      </c>
-      <c r="I542" t="n">
-        <v>15.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18336,7 +18312,7 @@
       <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L543" t="n">
@@ -18899,9 +18875,11 @@
         <v>-322734402.4979396</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
-      </c>
-      <c r="I558" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I558" t="n">
+        <v>15.41</v>
+      </c>
       <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
@@ -18936,9 +18914,11 @@
         <v>-322734370.4979396</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
-      </c>
-      <c r="I559" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I559" t="n">
+        <v>15.41</v>
+      </c>
       <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
@@ -19380,9 +19360,11 @@
         <v>-322825706.8871785</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
-      </c>
-      <c r="I571" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I571" t="n">
+        <v>15.41</v>
+      </c>
       <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr">
         <is>
@@ -19417,9 +19399,11 @@
         <v>-322825706.8871785</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I572" t="n">
+        <v>15.41</v>
+      </c>
       <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr">
         <is>
@@ -19454,9 +19438,11 @@
         <v>-322825706.8871785</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
-      </c>
-      <c r="I573" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I573" t="n">
+        <v>15.41</v>
+      </c>
       <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr">
         <is>
@@ -19491,9 +19477,11 @@
         <v>-322941454.5403785</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
-      </c>
-      <c r="I574" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I574" t="n">
+        <v>15.41</v>
+      </c>
       <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr">
         <is>
@@ -19528,9 +19516,11 @@
         <v>-322845115.5109785</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
-      </c>
-      <c r="I575" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I575" t="n">
+        <v>15.35</v>
+      </c>
       <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr">
         <is>
@@ -19565,9 +19555,11 @@
         <v>-322845115.5109785</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
-      </c>
-      <c r="I576" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I576" t="n">
+        <v>15.41</v>
+      </c>
       <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr">
         <is>
@@ -19602,9 +19594,11 @@
         <v>-322559786.0152785</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
-      </c>
-      <c r="I577" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I577" t="n">
+        <v>15.41</v>
+      </c>
       <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr">
         <is>
@@ -19639,9 +19633,11 @@
         <v>-322554622.0152785</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
-      </c>
-      <c r="I578" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I578" t="n">
+        <v>15.57</v>
+      </c>
       <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr">
         <is>
@@ -19676,9 +19672,11 @@
         <v>-322554622.0152785</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
-      </c>
-      <c r="I579" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I579" t="n">
+        <v>15.65</v>
+      </c>
       <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr">
         <is>
@@ -19713,9 +19711,11 @@
         <v>-322586543.6874785</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
-      </c>
-      <c r="I580" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I580" t="n">
+        <v>15.65</v>
+      </c>
       <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr">
         <is>
@@ -19750,9 +19750,11 @@
         <v>-322722553.9330785</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I581" t="n">
+        <v>15.51</v>
+      </c>
       <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr">
         <is>
@@ -19787,9 +19789,11 @@
         <v>-322722553.9330785</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I582" t="n">
+        <v>15.5</v>
+      </c>
       <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr">
         <is>
@@ -19824,9 +19828,11 @@
         <v>-322722553.9330785</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I583" t="n">
+        <v>15.5</v>
+      </c>
       <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr">
         <is>
@@ -19861,9 +19867,11 @@
         <v>-322700146.8376785</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I584" t="n">
+        <v>15.5</v>
+      </c>
       <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr">
         <is>
@@ -19898,9 +19906,11 @@
         <v>-322677293.4740785</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I585" t="n">
+        <v>15.51</v>
+      </c>
       <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr">
         <is>
@@ -19935,9 +19945,11 @@
         <v>-322667290.2486785</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I586" t="n">
+        <v>15.55</v>
+      </c>
       <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr">
         <is>
@@ -19972,9 +19984,11 @@
         <v>-322678113.2559785</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
-      </c>
-      <c r="I587" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I587" t="n">
+        <v>15.66</v>
+      </c>
       <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr">
         <is>
@@ -20009,9 +20023,11 @@
         <v>-322642743.4689715</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I588" t="n">
+        <v>15.55</v>
+      </c>
       <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr">
         <is>
@@ -20046,9 +20062,11 @@
         <v>-322659258.2003715</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
-      </c>
-      <c r="I589" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I589" t="n">
+        <v>15.67</v>
+      </c>
       <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr">
         <is>
@@ -20083,9 +20101,11 @@
         <v>-322619591.2988786</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I590" t="n">
+        <v>15.64</v>
+      </c>
       <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr">
         <is>
@@ -20120,9 +20140,11 @@
         <v>-322621954.2988786</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I591" t="n">
+        <v>15.69</v>
+      </c>
       <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
@@ -20157,9 +20179,11 @@
         <v>-322621954.2988786</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I592" t="n">
+        <v>15.67</v>
+      </c>
       <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
@@ -20194,9 +20218,11 @@
         <v>-322626188.9584786</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I593" t="n">
+        <v>15.67</v>
+      </c>
       <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr">
         <is>
@@ -20231,9 +20257,11 @@
         <v>-322634210.0536786</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I594" t="n">
+        <v>15.64</v>
+      </c>
       <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
@@ -20268,9 +20296,11 @@
         <v>-322634210.0536786</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I595" t="n">
+        <v>15.63</v>
+      </c>
       <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
@@ -20305,9 +20335,11 @@
         <v>-322719967.2994786</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
-      </c>
-      <c r="I596" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I596" t="n">
+        <v>15.63</v>
+      </c>
       <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr">
         <is>
@@ -20342,9 +20374,11 @@
         <v>-322545031.7748786</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
-      </c>
-      <c r="I597" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I597" t="n">
+        <v>15.55</v>
+      </c>
       <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr">
         <is>
@@ -20379,9 +20413,11 @@
         <v>-322547743.2350786</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
-      </c>
-      <c r="I598" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I598" t="n">
+        <v>15.82</v>
+      </c>
       <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr">
         <is>
@@ -20416,9 +20452,11 @@
         <v>-322547743.2350786</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
-      </c>
-      <c r="I599" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I599" t="n">
+        <v>15.6</v>
+      </c>
       <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr">
         <is>
@@ -20453,9 +20491,11 @@
         <v>-322812985.7409786</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
-      </c>
-      <c r="I600" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I600" t="n">
+        <v>15.6</v>
+      </c>
       <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
@@ -20490,9 +20530,11 @@
         <v>-322772838.0571786</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
-      </c>
-      <c r="I601" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I601" t="n">
+        <v>15.45</v>
+      </c>
       <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr">
         <is>
@@ -20527,9 +20569,11 @@
         <v>-322772838.0571786</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I602" t="n">
+        <v>15.59</v>
+      </c>
       <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
@@ -20564,9 +20608,11 @@
         <v>-322754897.9938786</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
-      </c>
-      <c r="I603" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I603" t="n">
+        <v>15.59</v>
+      </c>
       <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
@@ -20601,9 +20647,11 @@
         <v>-322767460.5978786</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I604" t="n">
+        <v>15.6</v>
+      </c>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
@@ -20638,9 +20686,11 @@
         <v>-322767460.5978786</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
-      </c>
-      <c r="I605" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I605" t="n">
+        <v>15.59</v>
+      </c>
       <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr">
         <is>
@@ -20675,9 +20725,11 @@
         <v>-322730970.7488786</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
-      </c>
-      <c r="I606" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I606" t="n">
+        <v>15.59</v>
+      </c>
       <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr">
         <is>
@@ -20712,9 +20764,11 @@
         <v>-322748320.8851786</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
-      </c>
-      <c r="I607" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I607" t="n">
+        <v>15.6</v>
+      </c>
       <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr">
         <is>
@@ -20749,9 +20803,11 @@
         <v>-322730217.8270786</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
-      </c>
-      <c r="I608" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I608" t="n">
+        <v>15.45</v>
+      </c>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
@@ -20786,9 +20842,11 @@
         <v>-322730217.8270786</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
-      </c>
-      <c r="I609" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I609" t="n">
+        <v>15.58</v>
+      </c>
       <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr">
         <is>
@@ -20823,9 +20881,11 @@
         <v>-322730217.8270786</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I610" t="n">
+        <v>15.58</v>
+      </c>
       <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
@@ -20860,9 +20920,11 @@
         <v>-322745209.7373787</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I611" t="n">
+        <v>15.58</v>
+      </c>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
@@ -20897,9 +20959,11 @@
         <v>-322738839.0837787</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
-      </c>
-      <c r="I612" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I612" t="n">
+        <v>15.47</v>
+      </c>
       <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
@@ -20934,9 +20998,11 @@
         <v>-322732734.7027787</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
-      </c>
-      <c r="I613" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I613" t="n">
+        <v>15.58</v>
+      </c>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
@@ -20971,9 +21037,11 @@
         <v>-322726364.0491787</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I614" t="n">
+        <v>15.59</v>
+      </c>
       <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
@@ -21008,9 +21076,11 @@
         <v>-322723940.5889787</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
-      </c>
-      <c r="I615" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I615" t="n">
+        <v>15.6</v>
+      </c>
       <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
@@ -21045,9 +21115,11 @@
         <v>-322721165.6403787</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
-      </c>
-      <c r="I616" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I616" t="n">
+        <v>15.7</v>
+      </c>
       <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
@@ -21082,9 +21154,11 @@
         <v>-322721165.6403787</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
-      </c>
-      <c r="I617" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I617" t="n">
+        <v>15.79</v>
+      </c>
       <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr">
         <is>
@@ -21119,9 +21193,11 @@
         <v>-322721165.6403787</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
-      </c>
-      <c r="I618" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I618" t="n">
+        <v>15.79</v>
+      </c>
       <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr">
         <is>
@@ -21156,9 +21232,11 @@
         <v>-322721165.6403787</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
-      </c>
-      <c r="I619" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I619" t="n">
+        <v>15.79</v>
+      </c>
       <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr">
         <is>
@@ -21193,9 +21271,11 @@
         <v>-322743572.7357787</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
-      </c>
-      <c r="I620" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I620" t="n">
+        <v>15.79</v>
+      </c>
       <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr">
         <is>
@@ -21230,9 +21310,11 @@
         <v>-322739626.2808787</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
-      </c>
-      <c r="I621" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I621" t="n">
+        <v>15.6</v>
+      </c>
       <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
@@ -21267,9 +21349,11 @@
         <v>-322739333.2015787</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I622" t="n">
+        <v>15.61</v>
+      </c>
       <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
@@ -21304,9 +21388,11 @@
         <v>-322720287.5220787</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
-      </c>
-      <c r="I623" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I623" t="n">
+        <v>15.62</v>
+      </c>
       <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
@@ -21341,9 +21427,11 @@
         <v>-322737753.8818787</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
-      </c>
-      <c r="I624" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I624" t="n">
+        <v>15.79</v>
+      </c>
       <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
@@ -21378,9 +21466,11 @@
         <v>-322680897.9236787</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
-      </c>
-      <c r="I625" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I625" t="n">
+        <v>15.62</v>
+      </c>
       <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr">
         <is>
@@ -21415,9 +21505,11 @@
         <v>-322680897.9236787</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
-      </c>
-      <c r="I626" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I626" t="n">
+        <v>15.79</v>
+      </c>
       <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr">
         <is>
@@ -21452,9 +21544,11 @@
         <v>-322680897.9236787</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
-      </c>
-      <c r="I627" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I627" t="n">
+        <v>15.79</v>
+      </c>
       <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
@@ -21489,9 +21583,11 @@
         <v>-322671806.2572787</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I628" t="n">
+        <v>15.79</v>
+      </c>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
@@ -21526,9 +21622,11 @@
         <v>-322711124.2806787</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
-      </c>
-      <c r="I629" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I629" t="n">
+        <v>15.8</v>
+      </c>
       <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
@@ -21563,9 +21661,11 @@
         <v>-322615584.9607787</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I630" t="n">
+        <v>15.69</v>
+      </c>
       <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
@@ -21600,9 +21700,11 @@
         <v>-322615584.9607787</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
-      </c>
-      <c r="I631" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I631" t="n">
+        <v>15.7</v>
+      </c>
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
@@ -21637,9 +21739,11 @@
         <v>-322598429.6168787</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
-      </c>
-      <c r="I632" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I632" t="n">
+        <v>15.7</v>
+      </c>
       <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
@@ -21674,9 +21778,11 @@
         <v>-322598429.6168787</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>15.71</v>
+      </c>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
@@ -21711,9 +21817,11 @@
         <v>-322598429.6168787</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I634" t="n">
+        <v>15.71</v>
+      </c>
       <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
@@ -21748,9 +21856,11 @@
         <v>-322556804.9352787</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
-      </c>
-      <c r="I635" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I635" t="n">
+        <v>15.71</v>
+      </c>
       <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
@@ -21785,9 +21895,11 @@
         <v>-322556668.3778787</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I636" t="n">
+        <v>15.72</v>
+      </c>
       <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr">
         <is>
@@ -21822,9 +21934,11 @@
         <v>-322568036.0830787</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
-      </c>
-      <c r="I637" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I637" t="n">
+        <v>15.79</v>
+      </c>
       <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr">
         <is>
@@ -21859,9 +21973,11 @@
         <v>-322745694.2170787</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
-      </c>
-      <c r="I638" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I638" t="n">
+        <v>15.73</v>
+      </c>
       <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr">
         <is>
@@ -21896,9 +22012,11 @@
         <v>-322704847.095809</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
-      </c>
-      <c r="I639" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I639" t="n">
+        <v>15.7</v>
+      </c>
       <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr">
         <is>
@@ -21933,9 +22051,11 @@
         <v>-322738299.236609</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I640" t="n">
+        <v>15.79</v>
+      </c>
       <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr">
         <is>
@@ -21970,9 +22090,11 @@
         <v>-322776589.344609</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
-      </c>
-      <c r="I641" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I641" t="n">
+        <v>15.78</v>
+      </c>
       <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr">
         <is>
@@ -22007,9 +22129,11 @@
         <v>-322606859.976309</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
-      </c>
-      <c r="I642" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I642" t="n">
+        <v>15.7</v>
+      </c>
       <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr">
         <is>
@@ -22044,9 +22168,11 @@
         <v>-322606823.282409</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
-      </c>
-      <c r="I643" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I643" t="n">
+        <v>15.71</v>
+      </c>
       <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr">
         <is>
@@ -22081,9 +22207,11 @@
         <v>-322606935.921809</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
-      </c>
-      <c r="I644" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I644" t="n">
+        <v>15.77</v>
+      </c>
       <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
@@ -22118,9 +22246,11 @@
         <v>-322606903.921809</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
-      </c>
-      <c r="I645" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I645" t="n">
+        <v>15.7</v>
+      </c>
       <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr">
         <is>
@@ -22155,9 +22285,11 @@
         <v>-322350720.547609</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
-      </c>
-      <c r="I646" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I646" t="n">
+        <v>15.79</v>
+      </c>
       <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr">
         <is>
@@ -22192,9 +22324,11 @@
         <v>-322350662.547609</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
-      </c>
-      <c r="I647" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I647" t="n">
+        <v>15.8</v>
+      </c>
       <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr">
         <is>
@@ -22229,9 +22363,11 @@
         <v>-322350662.547609</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
-      </c>
-      <c r="I648" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I648" t="n">
+        <v>15.82</v>
+      </c>
       <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr">
         <is>
@@ -22266,9 +22402,11 @@
         <v>-322390018.988909</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
-      </c>
-      <c r="I649" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I649" t="n">
+        <v>15.82</v>
+      </c>
       <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr">
         <is>
@@ -22303,9 +22441,11 @@
         <v>-322390018.988909</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
-      </c>
-      <c r="I650" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I650" t="n">
+        <v>15.75</v>
+      </c>
       <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr">
         <is>
@@ -22340,9 +22480,11 @@
         <v>-322390018.988909</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
-      </c>
-      <c r="I651" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I651" t="n">
+        <v>15.75</v>
+      </c>
       <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr">
         <is>
@@ -22377,9 +22519,11 @@
         <v>-322385713.881409</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
-      </c>
-      <c r="I652" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I652" t="n">
+        <v>15.75</v>
+      </c>
       <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr">
         <is>
@@ -22414,9 +22558,11 @@
         <v>-322397094.177509</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
-      </c>
-      <c r="I653" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I653" t="n">
+        <v>15.81</v>
+      </c>
       <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr">
         <is>
@@ -22451,9 +22597,11 @@
         <v>-322428274.207109</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
-      </c>
-      <c r="I654" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I654" t="n">
+        <v>15.75</v>
+      </c>
       <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
@@ -22488,9 +22636,11 @@
         <v>-322385580.176309</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
-      </c>
-      <c r="I655" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I655" t="n">
+        <v>15.74</v>
+      </c>
       <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr">
         <is>
@@ -22525,9 +22675,11 @@
         <v>-322288399.0353091</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
-      </c>
-      <c r="I656" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I656" t="n">
+        <v>15.85</v>
+      </c>
       <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr">
         <is>
@@ -22562,9 +22714,11 @@
         <v>-321913835.9397091</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
-      </c>
-      <c r="I657" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I657" t="n">
+        <v>15.93</v>
+      </c>
       <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr">
         <is>
@@ -22599,9 +22753,11 @@
         <v>-321913835.9397091</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
-      </c>
-      <c r="I658" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I658" t="n">
+        <v>15.98</v>
+      </c>
       <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr">
         <is>
@@ -22673,9 +22829,11 @@
         <v>-321664394.3096091</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
-      </c>
-      <c r="I660" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I660" t="n">
+        <v>15.78</v>
+      </c>
       <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr">
         <is>
@@ -28519,16 +28677,18 @@
         <v>-344137914.0043278</v>
       </c>
       <c r="H818" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L818" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L818" t="n">
+        <v>1</v>
+      </c>
       <c r="M818" t="inlineStr"/>
     </row>
     <row r="819">
@@ -28554,11 +28714,15 @@
         <v>-344138161.2804278</v>
       </c>
       <c r="H819" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -28591,7 +28755,11 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -28624,7 +28792,11 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -28657,7 +28829,11 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -28690,7 +28866,11 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -28723,7 +28903,11 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -28756,7 +28940,11 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -28789,7 +28977,11 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -28822,7 +29014,11 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -28855,7 +29051,11 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -28888,7 +29088,11 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -28921,7 +29125,11 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -28954,7 +29162,11 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -28987,7 +29199,11 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -29020,7 +29236,11 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -29053,7 +29273,11 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -29086,7 +29310,11 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -29119,7 +29347,11 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -29152,7 +29384,11 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -29185,7 +29421,11 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -29218,7 +29458,11 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -29251,7 +29495,11 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -29284,7 +29532,11 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -29317,7 +29569,11 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -29350,7 +29606,11 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -29383,7 +29643,11 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -29416,7 +29680,11 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -29449,7 +29717,11 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -29482,7 +29754,11 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -29515,7 +29791,11 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -29548,7 +29828,11 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -29581,7 +29865,11 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -29614,7 +29902,11 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -29647,7 +29939,11 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -29680,7 +29976,11 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -29713,7 +30013,11 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -29746,7 +30050,11 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -29779,7 +30087,11 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -29812,7 +30124,11 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -29845,7 +30161,11 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -29878,7 +30198,11 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -29911,7 +30235,11 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -29944,7 +30272,11 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -29977,7 +30309,11 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -30010,7 +30346,11 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -30043,7 +30383,11 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -30076,7 +30420,11 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -30109,7 +30457,11 @@
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -30142,7 +30494,11 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -30175,7 +30531,11 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -30208,7 +30568,11 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -30241,7 +30605,11 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -30274,7 +30642,11 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -30307,7 +30679,11 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -30340,7 +30716,11 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -30373,7 +30753,11 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -30406,7 +30790,11 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -30439,7 +30827,11 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -30472,7 +30864,11 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -30505,7 +30901,11 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -30538,7 +30938,11 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -30571,7 +30975,11 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -30604,7 +31012,11 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -30637,7 +31049,11 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -30670,7 +31086,11 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -30703,7 +31123,11 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -30736,7 +31160,11 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -30769,7 +31197,11 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -30802,7 +31234,11 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -30835,7 +31271,11 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -30868,7 +31308,11 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -30901,7 +31345,11 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -30934,7 +31382,11 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -30967,7 +31419,11 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -31000,7 +31456,11 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -31033,7 +31493,11 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -31066,7 +31530,11 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -31099,7 +31567,11 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -31132,7 +31604,11 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -31165,7 +31641,11 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -31198,7 +31678,11 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -31231,7 +31715,11 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -31264,7 +31752,11 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -31297,7 +31789,11 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -31330,7 +31826,11 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -31363,7 +31863,11 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -31396,7 +31900,11 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -31429,7 +31937,11 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -31462,7 +31974,11 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -31495,7 +32011,11 @@
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -31528,7 +32048,11 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -31561,7 +32085,11 @@
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -31594,7 +32122,11 @@
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr"/>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -31627,7 +32159,11 @@
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -31660,7 +32196,11 @@
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr"/>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -31693,7 +32233,11 @@
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr"/>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -31726,7 +32270,11 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr"/>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -31759,7 +32307,11 @@
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr"/>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -31792,7 +32344,11 @@
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr"/>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -31825,7 +32381,11 @@
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr"/>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -31858,7 +32418,11 @@
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr"/>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -31891,7 +32455,11 @@
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr"/>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -31924,7 +32492,11 @@
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr"/>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -31957,7 +32529,11 @@
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr"/>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -31990,7 +32566,11 @@
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr"/>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -32023,7 +32603,11 @@
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr"/>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -32056,7 +32640,11 @@
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr"/>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -32089,7 +32677,11 @@
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr"/>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -32122,7 +32714,11 @@
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr"/>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -32155,7 +32751,11 @@
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr"/>
+      <c r="K928" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -32188,7 +32788,11 @@
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr"/>
+      <c r="K929" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -32221,7 +32825,11 @@
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr"/>
+      <c r="K930" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -32254,7 +32862,11 @@
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr"/>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -32287,7 +32899,11 @@
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr"/>
+      <c r="K932" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -32320,7 +32936,11 @@
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr"/>
+      <c r="K933" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -32353,7 +32973,11 @@
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr"/>
+      <c r="K934" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -32386,7 +33010,11 @@
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr"/>
+      <c r="K935" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -32419,7 +33047,11 @@
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr"/>
+      <c r="K936" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -32452,7 +33084,11 @@
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr"/>
+      <c r="K937" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -32485,7 +33121,11 @@
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr"/>
+      <c r="K938" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -32518,7 +33158,11 @@
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr"/>
+      <c r="K939" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -32551,7 +33195,11 @@
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr"/>
+      <c r="K940" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -32584,7 +33232,11 @@
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr"/>
+      <c r="K941" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -32617,7 +33269,11 @@
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr"/>
+      <c r="K942" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -32650,7 +33306,11 @@
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr"/>
+      <c r="K943" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -32683,7 +33343,11 @@
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr"/>
+      <c r="K944" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -32716,7 +33380,11 @@
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr"/>
+      <c r="K945" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -32749,7 +33417,11 @@
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr"/>
+      <c r="K946" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -32782,7 +33454,11 @@
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr"/>
+      <c r="K947" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -32815,7 +33491,11 @@
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr"/>
+      <c r="K948" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -32848,7 +33528,11 @@
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr"/>
+      <c r="K949" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -32881,7 +33565,11 @@
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr"/>
+      <c r="K950" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -32914,7 +33602,11 @@
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr"/>
+      <c r="K951" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -32947,7 +33639,11 @@
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr"/>
+      <c r="K952" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -32980,7 +33676,11 @@
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr"/>
+      <c r="K953" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -33013,7 +33713,11 @@
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr"/>
+      <c r="K954" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -33046,7 +33750,11 @@
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr"/>
+      <c r="K955" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -33079,7 +33787,11 @@
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr"/>
+      <c r="K956" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -33112,7 +33824,11 @@
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr"/>
+      <c r="K957" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -33145,7 +33861,11 @@
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr"/>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -33178,7 +33898,11 @@
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr"/>
+      <c r="K959" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -33211,7 +33935,11 @@
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr"/>
+      <c r="K960" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -33244,7 +33972,11 @@
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr"/>
+      <c r="K961" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -33277,7 +34009,11 @@
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr"/>
+      <c r="K962" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -33310,7 +34046,11 @@
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr"/>
+      <c r="K963" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -33343,7 +34083,11 @@
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr"/>
+      <c r="K964" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -33376,7 +34120,11 @@
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr"/>
+      <c r="K965" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -33409,7 +34157,11 @@
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr"/>
+      <c r="K966" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -33442,7 +34194,11 @@
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr"/>
+      <c r="K967" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -33475,7 +34231,11 @@
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr"/>
+      <c r="K968" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -33508,7 +34268,11 @@
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr"/>
+      <c r="K969" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -33541,7 +34305,11 @@
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr"/>
+      <c r="K970" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -33574,7 +34342,11 @@
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr"/>
+      <c r="K971" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -33607,7 +34379,11 @@
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr"/>
+      <c r="K972" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -33640,7 +34416,11 @@
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr"/>
+      <c r="K973" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -33673,7 +34453,11 @@
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr"/>
+      <c r="K974" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -33706,7 +34490,11 @@
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr"/>
+      <c r="K975" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -33739,7 +34527,11 @@
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr"/>
+      <c r="K976" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -33772,7 +34564,11 @@
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr"/>
+      <c r="K977" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -33805,7 +34601,11 @@
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr"/>
+      <c r="K978" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -33838,7 +34638,11 @@
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr"/>
+      <c r="K979" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -33871,7 +34675,11 @@
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr"/>
+      <c r="K980" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -33904,7 +34712,11 @@
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr"/>
+      <c r="K981" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -33937,7 +34749,11 @@
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr"/>
+      <c r="K982" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -33970,7 +34786,11 @@
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr"/>
+      <c r="K983" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -34003,7 +34823,11 @@
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr"/>
+      <c r="K984" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -34036,7 +34860,11 @@
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr"/>
+      <c r="K985" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -34069,7 +34897,11 @@
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr"/>
+      <c r="K986" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -34102,7 +34934,11 @@
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr"/>
+      <c r="K987" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -34135,7 +34971,11 @@
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr"/>
+      <c r="K988" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -34168,7 +35008,11 @@
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr"/>
+      <c r="K989" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -34201,7 +35045,11 @@
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr"/>
+      <c r="K990" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -34234,7 +35082,11 @@
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr"/>
+      <c r="K991" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -34267,7 +35119,11 @@
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr"/>
+      <c r="K992" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -34300,7 +35156,11 @@
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr"/>
+      <c r="K993" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -34333,7 +35193,11 @@
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr"/>
+      <c r="K994" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -34366,7 +35230,11 @@
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr"/>
+      <c r="K995" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -34399,7 +35267,11 @@
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr"/>
+      <c r="K996" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -34432,7 +35304,11 @@
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr"/>
+      <c r="K997" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -34465,7 +35341,11 @@
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr"/>
+      <c r="K998" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -34498,7 +35378,11 @@
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr"/>
+      <c r="K999" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -34531,7 +35415,11 @@
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr"/>
+      <c r="K1000" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -34564,7 +35452,11 @@
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr"/>
+      <c r="K1001" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -34597,7 +35489,11 @@
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr"/>
+      <c r="K1002" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -34630,7 +35526,11 @@
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr"/>
+      <c r="K1003" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -34663,7 +35563,11 @@
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr"/>
+      <c r="K1004" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -34696,7 +35600,11 @@
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr"/>
+      <c r="K1005" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -34729,7 +35637,11 @@
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr"/>
+      <c r="K1006" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -34762,7 +35674,11 @@
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr"/>
+      <c r="K1007" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -34795,7 +35711,11 @@
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr"/>
+      <c r="K1008" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -34828,7 +35748,11 @@
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr"/>
+      <c r="K1009" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -34861,7 +35785,11 @@
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr"/>
+      <c r="K1010" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -34894,7 +35822,11 @@
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr"/>
+      <c r="K1011" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -34927,7 +35859,11 @@
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr"/>
+      <c r="K1012" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -34960,7 +35896,11 @@
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr"/>
+      <c r="K1013" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -34993,7 +35933,11 @@
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr"/>
+      <c r="K1014" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -35026,7 +35970,11 @@
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr"/>
+      <c r="K1015" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -35059,7 +36007,11 @@
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr"/>
+      <c r="K1016" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -35092,7 +36044,11 @@
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr"/>
+      <c r="K1017" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -35125,7 +36081,11 @@
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr"/>
+      <c r="K1018" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -35158,7 +36118,11 @@
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr"/>
+      <c r="K1019" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -35191,7 +36155,11 @@
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr"/>
+      <c r="K1020" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -35224,7 +36192,11 @@
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr"/>
+      <c r="K1021" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -35257,7 +36229,11 @@
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr"/>
+      <c r="K1022" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -35290,7 +36266,11 @@
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr"/>
+      <c r="K1023" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -35323,7 +36303,11 @@
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr"/>
+      <c r="K1024" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -35356,7 +36340,11 @@
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr"/>
+      <c r="K1025" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -35389,7 +36377,11 @@
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr"/>
+      <c r="K1026" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -35422,7 +36414,11 @@
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr"/>
+      <c r="K1027" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -35455,7 +36451,11 @@
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr"/>
+      <c r="K1028" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -35488,7 +36488,11 @@
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr"/>
+      <c r="K1029" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1029" t="n">
         <v>1</v>
       </c>
@@ -35521,7 +36525,11 @@
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr"/>
+      <c r="K1030" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -35554,7 +36562,11 @@
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr"/>
+      <c r="K1031" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -35587,7 +36599,11 @@
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr"/>
+      <c r="K1032" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -35620,7 +36636,11 @@
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr"/>
+      <c r="K1033" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -35653,7 +36673,11 @@
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr"/>
+      <c r="K1034" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -35686,7 +36710,11 @@
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr"/>
+      <c r="K1035" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -35719,7 +36747,11 @@
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr"/>
+      <c r="K1036" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -35752,7 +36784,11 @@
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr"/>
+      <c r="K1037" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
